--- a/app/data/inputs/ricotta/sample_boiling_plan.xlsx
+++ b/app/data/inputs/ricotta/sample_boiling_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/inputs/ricotta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D550AE6-40CF-5546-A837-9C966705DAE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842D160-302F-444D-A3D0-CA58DD71DC2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2359,18 +2359,15 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2387,6 +2384,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -46167,7 +46167,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>660</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -46216,8 +46216,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="25" t="s">
         <v>175</v>
       </c>
@@ -46241,7 +46241,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>662</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -46412,8 +46412,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="25" t="s">
         <v>173</v>
       </c>
@@ -46437,7 +46437,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>664</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -46483,8 +46483,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="25" t="s">
         <v>187</v>
       </c>
@@ -46508,7 +46508,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>666</v>
       </c>
       <c r="B19" s="33" t="s">
@@ -46554,8 +46554,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="25" t="s">
         <v>179</v>
       </c>
@@ -46579,7 +46579,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>668</v>
       </c>
       <c r="B23" s="33" t="s">
@@ -46625,8 +46625,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="25" t="s">
         <v>179</v>
       </c>
@@ -46650,7 +46650,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>670</v>
       </c>
       <c r="B27" s="33" t="s">
@@ -46696,7 +46696,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="34" t="s">
         <v>672</v>
       </c>
       <c r="B30" s="33" t="s">
@@ -46743,6 +46743,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B30"/>
     <mergeCell ref="A30"/>
     <mergeCell ref="B19:B20"/>
@@ -46751,12 +46757,6 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B27"/>
     <mergeCell ref="A27"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -46772,8 +46772,8 @@
   <dimension ref="A1:AMK165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46801,38 +46801,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="45" t="s">
         <v>674</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>649</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>675</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>676</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>677</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>678</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="37" t="s">
         <v>679</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>680</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>681</v>
       </c>
       <c r="J1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="Q1" s="44"/>
+      <c r="Q1" s="43"/>
       <c r="R1" s="15" t="s">
         <v>682</v>
       </c>
@@ -46851,8 +46851,8 @@
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="43"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="14" t="s">
         <v>685</v>
       </c>
@@ -46865,7 +46865,7 @@
       <c r="N2" s="14">
         <v>0</v>
       </c>
-      <c r="Q2" s="45"/>
+      <c r="Q2" s="44"/>
       <c r="R2" s="27">
         <v>124740</v>
       </c>
@@ -46896,7 +46896,7 @@
         <v>282</v>
       </c>
       <c r="F3" s="28">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G3" s="20" t="str">
         <f ca="1">IF(H3="", IF(J3="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N3)),IF(J3="", "", INDIRECT("N" &amp; ROW() - 1) - N3))</f>
@@ -46909,7 +46909,7 @@
       <c r="I3" s="22"/>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K34" ca="1" si="2">IF(J3 = "-", -INDIRECT("C" &amp; ROW() - 1),F3)</f>
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L34" ca="1" si="3">IF(J3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K3)))), 0)</f>
@@ -46943,7 +46943,7 @@
       </c>
       <c r="G4" s="20">
         <f ca="1">IF(H4="", IF(J4="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N4)),IF(J4="", "", INDIRECT("N" &amp; ROW() - 1) - N4))</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="H4" s="21">
         <f t="shared" ca="1" si="1"/>
@@ -46961,7 +46961,7 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="4"/>
@@ -46969,7 +46969,7 @@
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47015,7 +47015,7 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47055,7 +47055,7 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="4"/>
@@ -47063,7 +47063,7 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47109,7 +47109,7 @@
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47155,7 +47155,7 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47195,7 +47195,7 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="4"/>
@@ -47203,7 +47203,7 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47249,7 +47249,7 @@
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47289,7 +47289,7 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="4"/>
@@ -47297,7 +47297,7 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47343,7 +47343,7 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47383,7 +47383,7 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="4"/>
@@ -47391,7 +47391,7 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47437,7 +47437,7 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47477,7 +47477,7 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="4"/>
@@ -47485,7 +47485,7 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47531,7 +47531,7 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47571,7 +47571,7 @@
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="4"/>
@@ -47579,7 +47579,7 @@
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47625,7 +47625,7 @@
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47665,7 +47665,7 @@
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="4"/>
@@ -47673,7 +47673,7 @@
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47719,7 +47719,7 @@
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47759,7 +47759,7 @@
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="4"/>
@@ -47767,7 +47767,7 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47813,7 +47813,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47853,7 +47853,7 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="4"/>
@@ -47861,7 +47861,7 @@
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47907,7 +47907,7 @@
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47947,7 +47947,7 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="4"/>
@@ -47955,7 +47955,7 @@
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48001,7 +48001,7 @@
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48041,7 +48041,7 @@
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="4"/>
@@ -48049,7 +48049,7 @@
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48095,7 +48095,7 @@
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48135,7 +48135,7 @@
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="4"/>
@@ -48143,7 +48143,7 @@
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48189,7 +48189,7 @@
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48229,7 +48229,7 @@
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="4"/>
@@ -48237,7 +48237,7 @@
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48283,7 +48283,7 @@
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48323,7 +48323,7 @@
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="4"/>
@@ -48331,7 +48331,7 @@
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48377,7 +48377,7 @@
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48417,7 +48417,7 @@
       </c>
       <c r="L35" s="1">
         <f t="shared" ref="L35:L66" ca="1" si="9">IF(J35 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K35)))), 0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" ref="M35:M66" si="10">IF(J35="-",1,0)</f>
@@ -48425,7 +48425,7 @@
       </c>
       <c r="N35" s="1">
         <f t="shared" ref="N35:N66" ca="1" si="11">IF(L35 = 0, INDIRECT("N" &amp; ROW() - 1), L35)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48471,7 +48471,7 @@
       </c>
       <c r="N36" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48511,7 +48511,7 @@
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="10"/>
@@ -48519,7 +48519,7 @@
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48565,7 +48565,7 @@
       </c>
       <c r="N38" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48605,7 +48605,7 @@
       </c>
       <c r="L39" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="10"/>
@@ -48613,7 +48613,7 @@
       </c>
       <c r="N39" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48659,7 +48659,7 @@
       </c>
       <c r="N40" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48699,7 +48699,7 @@
       </c>
       <c r="L41" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="10"/>
@@ -48707,7 +48707,7 @@
       </c>
       <c r="N41" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48753,7 +48753,7 @@
       </c>
       <c r="N42" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48793,7 +48793,7 @@
       </c>
       <c r="L43" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="10"/>
@@ -48801,7 +48801,7 @@
       </c>
       <c r="N43" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48847,7 +48847,7 @@
       </c>
       <c r="N44" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48893,7 +48893,7 @@
       </c>
       <c r="N45" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48933,7 +48933,7 @@
       </c>
       <c r="L46" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="10"/>
@@ -48941,7 +48941,7 @@
       </c>
       <c r="N46" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48987,7 +48987,7 @@
       </c>
       <c r="N47" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49027,7 +49027,7 @@
       </c>
       <c r="L48" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="10"/>
@@ -49035,7 +49035,7 @@
       </c>
       <c r="N48" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49081,7 +49081,7 @@
       </c>
       <c r="N49" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49127,7 +49127,7 @@
       </c>
       <c r="N50" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49167,7 +49167,7 @@
       </c>
       <c r="L51" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="10"/>
@@ -49175,7 +49175,7 @@
       </c>
       <c r="N51" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49202,7 +49202,7 @@
       </c>
       <c r="N52" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49229,7 +49229,7 @@
       </c>
       <c r="N53" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49256,7 +49256,7 @@
       </c>
       <c r="N54" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49283,7 +49283,7 @@
       </c>
       <c r="N55" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49310,7 +49310,7 @@
       </c>
       <c r="N56" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49337,7 +49337,7 @@
       </c>
       <c r="N57" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49364,7 +49364,7 @@
       </c>
       <c r="N58" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49391,7 +49391,7 @@
       </c>
       <c r="N59" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49418,7 +49418,7 @@
       </c>
       <c r="N60" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49445,7 +49445,7 @@
       </c>
       <c r="N61" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49472,7 +49472,7 @@
       </c>
       <c r="N62" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49499,7 +49499,7 @@
       </c>
       <c r="N63" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49526,7 +49526,7 @@
       </c>
       <c r="N64" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49553,7 +49553,7 @@
       </c>
       <c r="N65" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49580,7 +49580,7 @@
       </c>
       <c r="N66" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49598,7 +49598,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" ref="L67:L98" ca="1" si="14">IF(J67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K67)))), 0)</f>
+        <f t="shared" ref="L67:L74" ca="1" si="14">IF(J67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K67)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M67" s="1">
@@ -49607,7 +49607,7 @@
       </c>
       <c r="N67" s="1">
         <f t="shared" ref="N67:N98" ca="1" si="16">IF(L67 = 0, INDIRECT("N" &amp; ROW() - 1), L67)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49634,7 +49634,7 @@
       </c>
       <c r="N68" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49661,7 +49661,7 @@
       </c>
       <c r="N69" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49688,7 +49688,7 @@
       </c>
       <c r="N70" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49715,7 +49715,7 @@
       </c>
       <c r="N71" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49742,7 +49742,7 @@
       </c>
       <c r="N72" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49769,7 +49769,7 @@
       </c>
       <c r="N73" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49796,7 +49796,7 @@
       </c>
       <c r="N74" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49823,7 +49823,7 @@
       </c>
       <c r="N75" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49850,7 +49850,7 @@
       </c>
       <c r="N76" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49877,7 +49877,7 @@
       </c>
       <c r="N77" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49904,7 +49904,7 @@
       </c>
       <c r="N78" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49931,7 +49931,7 @@
       </c>
       <c r="N79" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49958,7 +49958,7 @@
       </c>
       <c r="N80" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49985,7 +49985,7 @@
       </c>
       <c r="N81" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50012,7 +50012,7 @@
       </c>
       <c r="N82" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50039,7 +50039,7 @@
       </c>
       <c r="N83" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50066,7 +50066,7 @@
       </c>
       <c r="N84" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50093,7 +50093,7 @@
       </c>
       <c r="N85" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50120,7 +50120,7 @@
       </c>
       <c r="N86" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50147,7 +50147,7 @@
       </c>
       <c r="N87" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50174,7 +50174,7 @@
       </c>
       <c r="N88" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50201,7 +50201,7 @@
       </c>
       <c r="N89" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50228,7 +50228,7 @@
       </c>
       <c r="N90" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50255,7 +50255,7 @@
       </c>
       <c r="N91" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50282,7 +50282,7 @@
       </c>
       <c r="N92" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50309,7 +50309,7 @@
       </c>
       <c r="N93" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50336,7 +50336,7 @@
       </c>
       <c r="N94" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50363,7 +50363,7 @@
       </c>
       <c r="N95" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50390,7 +50390,7 @@
       </c>
       <c r="N96" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50417,7 +50417,7 @@
       </c>
       <c r="N97" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50444,7 +50444,7 @@
       </c>
       <c r="N98" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50458,7 +50458,7 @@
       </c>
       <c r="I99" s="22"/>
       <c r="K99" s="1">
-        <f t="shared" ref="K99:K130" ca="1" si="19">IF(J99 = "-", -INDIRECT("C" &amp; ROW() - 1),F99)</f>
+        <f t="shared" ref="K99:K123" ca="1" si="19">IF(J99 = "-", -INDIRECT("C" &amp; ROW() - 1),F99)</f>
         <v>0</v>
       </c>
       <c r="L99" s="1">
@@ -50471,7 +50471,7 @@
       </c>
       <c r="N99" s="1">
         <f t="shared" ref="N99:N123" ca="1" si="21">IF(L99 = 0, INDIRECT("N" &amp; ROW() - 1), L99)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50498,7 +50498,7 @@
       </c>
       <c r="N100" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50525,7 +50525,7 @@
       </c>
       <c r="N101" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50552,7 +50552,7 @@
       </c>
       <c r="N102" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50579,7 +50579,7 @@
       </c>
       <c r="N103" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50606,7 +50606,7 @@
       </c>
       <c r="N104" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50633,7 +50633,7 @@
       </c>
       <c r="N105" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50660,7 +50660,7 @@
       </c>
       <c r="N106" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50687,7 +50687,7 @@
       </c>
       <c r="N107" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50714,7 +50714,7 @@
       </c>
       <c r="N108" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50741,7 +50741,7 @@
       </c>
       <c r="N109" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50768,7 +50768,7 @@
       </c>
       <c r="N110" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50795,7 +50795,7 @@
       </c>
       <c r="N111" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50822,7 +50822,7 @@
       </c>
       <c r="N112" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50849,7 +50849,7 @@
       </c>
       <c r="N113" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50876,7 +50876,7 @@
       </c>
       <c r="N114" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50903,7 +50903,7 @@
       </c>
       <c r="N115" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50930,7 +50930,7 @@
       </c>
       <c r="N116" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50957,7 +50957,7 @@
       </c>
       <c r="N117" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50984,7 +50984,7 @@
       </c>
       <c r="N118" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51011,7 +51011,7 @@
       </c>
       <c r="N119" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51038,7 +51038,7 @@
       </c>
       <c r="N120" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51065,7 +51065,7 @@
       </c>
       <c r="N121" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51092,7 +51092,7 @@
       </c>
       <c r="N122" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51119,7 +51119,7 @@
       </c>
       <c r="N123" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51376,16 +51376,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:B123 B3:B5">
     <cfRule type="expression" dxfId="40" priority="2">

--- a/app/data/inputs/ricotta/sample_boiling_plan.xlsx
+++ b/app/data/inputs/ricotta/sample_boiling_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/inputs/ricotta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842D160-302F-444D-A3D0-CA58DD71DC2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47ED6966-B793-DD4E-AC03-BFDD51C16561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="690">
   <si>
     <t>Отчет от</t>
   </si>
@@ -2051,7 +2051,7 @@
     <t>[81]</t>
   </si>
   <si>
-    <t>Номер варки</t>
+    <t>Номер группы варок</t>
   </si>
   <si>
     <t>Выход с варки, кг</t>
@@ -2073,6 +2073,9 @@
   </si>
   <si>
     <t>Вес на выходе</t>
+  </si>
+  <si>
+    <t>Количество варок</t>
   </si>
   <si>
     <t>Общий объем сыворотки, кг</t>
@@ -2104,7 +2107,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2145,6 +2148,13 @@
     <font>
       <sz val="7"/>
       <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2193,19 +2203,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2290,10 +2291,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -2320,9 +2321,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2330,44 +2333,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2380,18 +2383,350 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -2556,102 +2891,6 @@
         <name val="Calibri"/>
         <charset val="1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF65C295"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0EFD4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0EFD4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED1C24"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF65C295"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0EFD4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0EFD4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED1C24"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2671,54 +2910,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFEBF1DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF65C295"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0EFD4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0EFD4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED1C24"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3179,7 +3370,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23">
+      <c r="B1" s="22">
         <v>44280</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5664,7 +5855,7 @@
       </c>
     </row>
     <row r="9" spans="1:138" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>44227</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5742,12 +5933,12 @@
       <c r="EE9" s="1">
         <v>0</v>
       </c>
-      <c r="EF9" s="24">
+      <c r="EF9" s="23">
         <v>44227</v>
       </c>
     </row>
     <row r="10" spans="1:138" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>44228</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -5759,12 +5950,12 @@
       <c r="EE10" s="1">
         <v>0</v>
       </c>
-      <c r="EF10" s="24">
+      <c r="EF10" s="23">
         <v>44228</v>
       </c>
     </row>
     <row r="11" spans="1:138" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>44229</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5881,12 +6072,12 @@
       <c r="EE11" s="1">
         <v>0</v>
       </c>
-      <c r="EF11" s="24">
+      <c r="EF11" s="23">
         <v>44229</v>
       </c>
     </row>
     <row r="12" spans="1:138" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>44230</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -6015,12 +6206,12 @@
       <c r="EE12" s="1">
         <v>0</v>
       </c>
-      <c r="EF12" s="24">
+      <c r="EF12" s="23">
         <v>44230</v>
       </c>
     </row>
     <row r="13" spans="1:138" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>44231</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6059,12 +6250,12 @@
       <c r="EE13" s="1">
         <v>0</v>
       </c>
-      <c r="EF13" s="24">
+      <c r="EF13" s="23">
         <v>44231</v>
       </c>
     </row>
     <row r="14" spans="1:138" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>44232</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -6145,12 +6336,12 @@
       <c r="EE14" s="1">
         <v>0</v>
       </c>
-      <c r="EF14" s="24">
+      <c r="EF14" s="23">
         <v>44232</v>
       </c>
     </row>
     <row r="15" spans="1:138" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>44233</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -6270,12 +6461,12 @@
       <c r="EE15" s="1">
         <v>0</v>
       </c>
-      <c r="EF15" s="24">
+      <c r="EF15" s="23">
         <v>44233</v>
       </c>
     </row>
     <row r="16" spans="1:138" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>44234</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -6359,12 +6550,12 @@
       <c r="EE16" s="1">
         <v>0</v>
       </c>
-      <c r="EF16" s="24">
+      <c r="EF16" s="23">
         <v>44234</v>
       </c>
     </row>
     <row r="17" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>44235</v>
       </c>
       <c r="CY17" s="1" t="s">
@@ -6394,12 +6585,12 @@
       <c r="EE17" s="1">
         <v>0</v>
       </c>
-      <c r="EF17" s="24">
+      <c r="EF17" s="23">
         <v>44235</v>
       </c>
     </row>
     <row r="18" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>44236</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -6528,12 +6719,12 @@
       <c r="EE18" s="1">
         <v>0</v>
       </c>
-      <c r="EF18" s="24">
+      <c r="EF18" s="23">
         <v>44236</v>
       </c>
     </row>
     <row r="19" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>44237</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -6665,12 +6856,12 @@
       <c r="EE19" s="1">
         <v>0</v>
       </c>
-      <c r="EF19" s="24">
+      <c r="EF19" s="23">
         <v>44237</v>
       </c>
     </row>
     <row r="20" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>44238</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -6694,12 +6885,12 @@
       <c r="EE20" s="1">
         <v>0</v>
       </c>
-      <c r="EF20" s="24">
+      <c r="EF20" s="23">
         <v>44238</v>
       </c>
     </row>
     <row r="21" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>44239</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -6789,12 +6980,12 @@
       <c r="EE21" s="1">
         <v>0</v>
       </c>
-      <c r="EF21" s="24">
+      <c r="EF21" s="23">
         <v>44239</v>
       </c>
     </row>
     <row r="22" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>44240</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -6947,12 +7138,12 @@
       <c r="EE22" s="1">
         <v>0</v>
       </c>
-      <c r="EF22" s="24">
+      <c r="EF22" s="23">
         <v>44240</v>
       </c>
     </row>
     <row r="23" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>44241</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -7027,12 +7218,12 @@
       <c r="EE23" s="1">
         <v>0</v>
       </c>
-      <c r="EF23" s="24">
+      <c r="EF23" s="23">
         <v>44241</v>
       </c>
     </row>
     <row r="24" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>44242</v>
       </c>
       <c r="DD24" s="1" t="s">
@@ -7041,12 +7232,12 @@
       <c r="EE24" s="1">
         <v>0</v>
       </c>
-      <c r="EF24" s="24">
+      <c r="EF24" s="23">
         <v>44242</v>
       </c>
     </row>
     <row r="25" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
+      <c r="A25" s="22">
         <v>44243</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -7151,12 +7342,12 @@
       <c r="EE25" s="1">
         <v>0</v>
       </c>
-      <c r="EF25" s="24">
+      <c r="EF25" s="23">
         <v>44243</v>
       </c>
     </row>
     <row r="26" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
+      <c r="A26" s="22">
         <v>44244</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -7222,12 +7413,12 @@
       <c r="EE26" s="1">
         <v>0</v>
       </c>
-      <c r="EF26" s="24">
+      <c r="EF26" s="23">
         <v>44244</v>
       </c>
     </row>
     <row r="27" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>44245</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -7257,12 +7448,12 @@
       <c r="EE27" s="1">
         <v>0</v>
       </c>
-      <c r="EF27" s="24">
+      <c r="EF27" s="23">
         <v>44245</v>
       </c>
     </row>
     <row r="28" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
+      <c r="A28" s="22">
         <v>44246</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -7331,12 +7522,12 @@
       <c r="EE28" s="1">
         <v>0</v>
       </c>
-      <c r="EF28" s="24">
+      <c r="EF28" s="23">
         <v>44246</v>
       </c>
     </row>
     <row r="29" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>44247</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -7408,12 +7599,12 @@
       <c r="EE29" s="1">
         <v>0</v>
       </c>
-      <c r="EF29" s="24">
+      <c r="EF29" s="23">
         <v>44247</v>
       </c>
     </row>
     <row r="30" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>44248</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -7470,12 +7661,12 @@
       <c r="EE30" s="1">
         <v>0</v>
       </c>
-      <c r="EF30" s="24">
+      <c r="EF30" s="23">
         <v>44248</v>
       </c>
     </row>
     <row r="31" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>44249</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -7496,12 +7687,12 @@
       <c r="EE31" s="1">
         <v>0</v>
       </c>
-      <c r="EF31" s="24">
+      <c r="EF31" s="23">
         <v>44249</v>
       </c>
     </row>
     <row r="32" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
+      <c r="A32" s="22">
         <v>44250</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -7558,12 +7749,12 @@
       <c r="EE32" s="1">
         <v>0</v>
       </c>
-      <c r="EF32" s="24">
+      <c r="EF32" s="23">
         <v>44250</v>
       </c>
     </row>
     <row r="33" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>44251</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -7647,12 +7838,12 @@
       <c r="EE33" s="1">
         <v>18.36</v>
       </c>
-      <c r="EF33" s="24">
+      <c r="EF33" s="23">
         <v>44251</v>
       </c>
     </row>
     <row r="34" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
+      <c r="A34" s="22">
         <v>44252</v>
       </c>
       <c r="Q34" s="1" t="s">
@@ -7694,12 +7885,12 @@
       <c r="EE34" s="1">
         <v>0</v>
       </c>
-      <c r="EF34" s="24">
+      <c r="EF34" s="23">
         <v>44252</v>
       </c>
     </row>
     <row r="35" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>44253</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -7750,12 +7941,12 @@
       <c r="EE35" s="1">
         <v>0</v>
       </c>
-      <c r="EF35" s="24">
+      <c r="EF35" s="23">
         <v>44253</v>
       </c>
     </row>
     <row r="36" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>44254</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -7869,12 +8060,12 @@
       <c r="EE36" s="1">
         <v>0</v>
       </c>
-      <c r="EF36" s="24">
+      <c r="EF36" s="23">
         <v>44254</v>
       </c>
     </row>
     <row r="37" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
+      <c r="A37" s="22">
         <v>44255</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -7976,12 +8167,12 @@
       <c r="EE37" s="1">
         <v>0</v>
       </c>
-      <c r="EF37" s="24">
+      <c r="EF37" s="23">
         <v>44255</v>
       </c>
     </row>
     <row r="38" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A38" s="23">
+      <c r="A38" s="22">
         <v>44256</v>
       </c>
       <c r="CY38" s="1" t="s">
@@ -7996,12 +8187,12 @@
       <c r="EE38" s="1">
         <v>0</v>
       </c>
-      <c r="EF38" s="24">
+      <c r="EF38" s="23">
         <v>44256</v>
       </c>
     </row>
     <row r="39" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>44257</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -8112,12 +8303,12 @@
       <c r="EE39" s="1">
         <v>0</v>
       </c>
-      <c r="EF39" s="24">
+      <c r="EF39" s="23">
         <v>44257</v>
       </c>
     </row>
     <row r="40" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>44258</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -8234,12 +8425,12 @@
       <c r="EE40" s="1">
         <v>0</v>
       </c>
-      <c r="EF40" s="24">
+      <c r="EF40" s="23">
         <v>44258</v>
       </c>
     </row>
     <row r="41" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A41" s="23">
+      <c r="A41" s="22">
         <v>44259</v>
       </c>
       <c r="AI41" s="1" t="s">
@@ -8251,12 +8442,12 @@
       <c r="EE41" s="1">
         <v>0</v>
       </c>
-      <c r="EF41" s="24">
+      <c r="EF41" s="23">
         <v>44259</v>
       </c>
     </row>
     <row r="42" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A42" s="23">
+      <c r="A42" s="22">
         <v>44260</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -8346,12 +8537,12 @@
       <c r="EE42" s="1">
         <v>0</v>
       </c>
-      <c r="EF42" s="24">
+      <c r="EF42" s="23">
         <v>44260</v>
       </c>
     </row>
     <row r="43" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A43" s="23">
+      <c r="A43" s="22">
         <v>44261</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -8480,12 +8671,12 @@
       <c r="EE43" s="1">
         <v>0</v>
       </c>
-      <c r="EF43" s="24">
+      <c r="EF43" s="23">
         <v>44261</v>
       </c>
     </row>
     <row r="44" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A44" s="23">
+      <c r="A44" s="22">
         <v>44262</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -8545,12 +8736,12 @@
       <c r="EE44" s="1">
         <v>48</v>
       </c>
-      <c r="EF44" s="24">
+      <c r="EF44" s="23">
         <v>44262</v>
       </c>
     </row>
     <row r="45" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A45" s="23">
+      <c r="A45" s="22">
         <v>44263</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -8643,12 +8834,12 @@
       <c r="EE45" s="1">
         <v>336</v>
       </c>
-      <c r="EF45" s="24">
+      <c r="EF45" s="23">
         <v>44263</v>
       </c>
     </row>
     <row r="46" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A46" s="23">
+      <c r="A46" s="22">
         <v>44264</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -8705,12 +8896,12 @@
       <c r="EE46" s="1">
         <v>146.16</v>
       </c>
-      <c r="EF46" s="24">
+      <c r="EF46" s="23">
         <v>44264</v>
       </c>
     </row>
     <row r="47" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A47" s="23">
+      <c r="A47" s="22">
         <v>44265</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -8824,12 +9015,12 @@
       <c r="EE47" s="1">
         <v>396</v>
       </c>
-      <c r="EF47" s="24">
+      <c r="EF47" s="23">
         <v>44265</v>
       </c>
     </row>
     <row r="48" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A48" s="23">
+      <c r="A48" s="22">
         <v>44266</v>
       </c>
       <c r="DR48" s="1">
@@ -8841,12 +9032,12 @@
       <c r="EE48" s="1">
         <v>867</v>
       </c>
-      <c r="EF48" s="24">
+      <c r="EF48" s="23">
         <v>44266</v>
       </c>
     </row>
     <row r="49" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A49" s="23">
+      <c r="A49" s="22">
         <v>44267</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -8915,12 +9106,12 @@
       <c r="EE49" s="1">
         <v>14.4</v>
       </c>
-      <c r="EF49" s="24">
+      <c r="EF49" s="23">
         <v>44267</v>
       </c>
     </row>
     <row r="50" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A50" s="23">
+      <c r="A50" s="22">
         <v>44268</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -9004,12 +9195,12 @@
       <c r="EE50" s="1">
         <v>0</v>
       </c>
-      <c r="EF50" s="24">
+      <c r="EF50" s="23">
         <v>44268</v>
       </c>
     </row>
     <row r="51" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>44269</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -9051,12 +9242,12 @@
       <c r="EE51" s="1">
         <v>699</v>
       </c>
-      <c r="EF51" s="24">
+      <c r="EF51" s="23">
         <v>44269</v>
       </c>
     </row>
     <row r="52" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A52" s="23">
+      <c r="A52" s="22">
         <v>44270</v>
       </c>
       <c r="AU52" s="1" t="s">
@@ -9071,12 +9262,12 @@
       <c r="EE52" s="1">
         <v>558</v>
       </c>
-      <c r="EF52" s="24">
+      <c r="EF52" s="23">
         <v>44270</v>
       </c>
     </row>
     <row r="53" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A53" s="23">
+      <c r="A53" s="22">
         <v>44271</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -9172,12 +9363,12 @@
       <c r="EE53" s="1">
         <v>586.79999999999995</v>
       </c>
-      <c r="EF53" s="24">
+      <c r="EF53" s="23">
         <v>44271</v>
       </c>
     </row>
     <row r="54" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A54" s="23">
+      <c r="A54" s="22">
         <v>44272</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -9282,12 +9473,12 @@
       <c r="EE54" s="1">
         <v>2287.5</v>
       </c>
-      <c r="EF54" s="24">
+      <c r="EF54" s="23">
         <v>44272</v>
       </c>
     </row>
     <row r="55" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A55" s="23">
+      <c r="A55" s="22">
         <v>44273</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -9296,12 +9487,12 @@
       <c r="EE55" s="1">
         <v>0</v>
       </c>
-      <c r="EF55" s="24">
+      <c r="EF55" s="23">
         <v>44273</v>
       </c>
     </row>
     <row r="56" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A56" s="23">
+      <c r="A56" s="22">
         <v>44274</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -9415,12 +9606,12 @@
       <c r="EE56" s="1">
         <v>1862.34</v>
       </c>
-      <c r="EF56" s="24">
+      <c r="EF56" s="23">
         <v>44274</v>
       </c>
     </row>
     <row r="57" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A57" s="23">
+      <c r="A57" s="22">
         <v>44275</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -9591,12 +9782,12 @@
       <c r="EE57" s="1">
         <v>1331.4</v>
       </c>
-      <c r="EF57" s="24">
+      <c r="EF57" s="23">
         <v>44275</v>
       </c>
     </row>
     <row r="58" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A58" s="23">
+      <c r="A58" s="22">
         <v>44276</v>
       </c>
       <c r="P58" s="1" t="s">
@@ -9665,12 +9856,12 @@
       <c r="EE58" s="1">
         <v>4890.58</v>
       </c>
-      <c r="EF58" s="24">
+      <c r="EF58" s="23">
         <v>44276</v>
       </c>
     </row>
     <row r="59" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A59" s="23">
+      <c r="A59" s="22">
         <v>44277</v>
       </c>
       <c r="S59" s="1" t="s">
@@ -9685,12 +9876,12 @@
       <c r="EE59" s="1">
         <v>1123.2</v>
       </c>
-      <c r="EF59" s="24">
+      <c r="EF59" s="23">
         <v>44277</v>
       </c>
     </row>
     <row r="60" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A60" s="23">
+      <c r="A60" s="22">
         <v>44278</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -9789,12 +9980,12 @@
       <c r="EE60" s="1">
         <v>4253.3</v>
       </c>
-      <c r="EF60" s="24">
+      <c r="EF60" s="23">
         <v>44278</v>
       </c>
     </row>
     <row r="61" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A61" s="23">
+      <c r="A61" s="22">
         <v>44279</v>
       </c>
       <c r="B61" s="1">
@@ -9932,12 +10123,12 @@
       <c r="EE61" s="1">
         <v>12038.038</v>
       </c>
-      <c r="EF61" s="24">
+      <c r="EF61" s="23">
         <v>44279</v>
       </c>
     </row>
     <row r="62" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A62" s="23">
+      <c r="A62" s="22">
         <v>44280</v>
       </c>
       <c r="B62" s="1">
@@ -9964,12 +10155,12 @@
       <c r="EE62" s="1">
         <v>3090.12</v>
       </c>
-      <c r="EF62" s="24">
+      <c r="EF62" s="23">
         <v>44280</v>
       </c>
     </row>
     <row r="63" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A63" s="23">
+      <c r="A63" s="22">
         <v>44281</v>
       </c>
       <c r="Q63" s="1">
@@ -10032,249 +10223,249 @@
       <c r="EE63" s="1">
         <v>17132.5</v>
       </c>
-      <c r="EF63" s="24">
+      <c r="EF63" s="23">
         <v>44281</v>
       </c>
     </row>
     <row r="64" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A64" s="23">
+      <c r="A64" s="22">
         <v>44282</v>
       </c>
       <c r="EE64" s="1">
         <v>0</v>
       </c>
-      <c r="EF64" s="24">
+      <c r="EF64" s="23">
         <v>44282</v>
       </c>
     </row>
     <row r="65" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A65" s="23">
+      <c r="A65" s="22">
         <v>44283</v>
       </c>
       <c r="EE65" s="1">
         <v>0</v>
       </c>
-      <c r="EF65" s="24">
+      <c r="EF65" s="23">
         <v>44283</v>
       </c>
     </row>
     <row r="66" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A66" s="23">
+      <c r="A66" s="22">
         <v>44284</v>
       </c>
       <c r="EE66" s="1">
         <v>0</v>
       </c>
-      <c r="EF66" s="24">
+      <c r="EF66" s="23">
         <v>44284</v>
       </c>
     </row>
     <row r="67" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A67" s="23">
+      <c r="A67" s="22">
         <v>44285</v>
       </c>
       <c r="EE67" s="1">
         <v>0</v>
       </c>
-      <c r="EF67" s="24">
+      <c r="EF67" s="23">
         <v>44285</v>
       </c>
     </row>
     <row r="68" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A68" s="23">
+      <c r="A68" s="22">
         <v>44286</v>
       </c>
       <c r="EE68" s="1">
         <v>0</v>
       </c>
-      <c r="EF68" s="24">
+      <c r="EF68" s="23">
         <v>44286</v>
       </c>
     </row>
     <row r="69" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A69" s="23">
+      <c r="A69" s="22">
         <v>44287</v>
       </c>
       <c r="EE69" s="1">
         <v>0</v>
       </c>
-      <c r="EF69" s="24">
+      <c r="EF69" s="23">
         <v>44287</v>
       </c>
     </row>
     <row r="70" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A70" s="23">
+      <c r="A70" s="22">
         <v>44288</v>
       </c>
       <c r="EE70" s="1">
         <v>0</v>
       </c>
-      <c r="EF70" s="24">
+      <c r="EF70" s="23">
         <v>44288</v>
       </c>
     </row>
     <row r="71" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A71" s="23">
+      <c r="A71" s="22">
         <v>44289</v>
       </c>
       <c r="EE71" s="1">
         <v>0</v>
       </c>
-      <c r="EF71" s="24">
+      <c r="EF71" s="23">
         <v>44289</v>
       </c>
     </row>
     <row r="72" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A72" s="23">
+      <c r="A72" s="22">
         <v>44290</v>
       </c>
       <c r="EE72" s="1">
         <v>0</v>
       </c>
-      <c r="EF72" s="24">
+      <c r="EF72" s="23">
         <v>44290</v>
       </c>
     </row>
     <row r="73" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A73" s="23">
+      <c r="A73" s="22">
         <v>44291</v>
       </c>
       <c r="EE73" s="1">
         <v>0</v>
       </c>
-      <c r="EF73" s="24">
+      <c r="EF73" s="23">
         <v>44291</v>
       </c>
     </row>
     <row r="74" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A74" s="23">
+      <c r="A74" s="22">
         <v>44292</v>
       </c>
       <c r="EE74" s="1">
         <v>0</v>
       </c>
-      <c r="EF74" s="24">
+      <c r="EF74" s="23">
         <v>44292</v>
       </c>
     </row>
     <row r="75" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A75" s="23">
+      <c r="A75" s="22">
         <v>44293</v>
       </c>
       <c r="EE75" s="1">
         <v>0</v>
       </c>
-      <c r="EF75" s="24">
+      <c r="EF75" s="23">
         <v>44293</v>
       </c>
     </row>
     <row r="76" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A76" s="23">
+      <c r="A76" s="22">
         <v>44294</v>
       </c>
       <c r="EE76" s="1">
         <v>0</v>
       </c>
-      <c r="EF76" s="24">
+      <c r="EF76" s="23">
         <v>44294</v>
       </c>
     </row>
     <row r="77" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A77" s="23">
+      <c r="A77" s="22">
         <v>44295</v>
       </c>
       <c r="EE77" s="1">
         <v>0</v>
       </c>
-      <c r="EF77" s="24">
+      <c r="EF77" s="23">
         <v>44295</v>
       </c>
     </row>
     <row r="78" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A78" s="23">
+      <c r="A78" s="22">
         <v>44296</v>
       </c>
       <c r="EE78" s="1">
         <v>0</v>
       </c>
-      <c r="EF78" s="24">
+      <c r="EF78" s="23">
         <v>44296</v>
       </c>
     </row>
     <row r="79" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A79" s="23">
+      <c r="A79" s="22">
         <v>44297</v>
       </c>
       <c r="EE79" s="1">
         <v>0</v>
       </c>
-      <c r="EF79" s="24">
+      <c r="EF79" s="23">
         <v>44297</v>
       </c>
     </row>
     <row r="80" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A80" s="23">
+      <c r="A80" s="22">
         <v>44298</v>
       </c>
       <c r="EE80" s="1">
         <v>0</v>
       </c>
-      <c r="EF80" s="24">
+      <c r="EF80" s="23">
         <v>44298</v>
       </c>
     </row>
     <row r="81" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A81" s="23">
+      <c r="A81" s="22">
         <v>44299</v>
       </c>
       <c r="EE81" s="1">
         <v>0</v>
       </c>
-      <c r="EF81" s="24">
+      <c r="EF81" s="23">
         <v>44299</v>
       </c>
     </row>
     <row r="82" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A82" s="23">
+      <c r="A82" s="22">
         <v>44300</v>
       </c>
       <c r="EE82" s="1">
         <v>0</v>
       </c>
-      <c r="EF82" s="24">
+      <c r="EF82" s="23">
         <v>44300</v>
       </c>
     </row>
     <row r="83" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A83" s="23">
+      <c r="A83" s="22">
         <v>44301</v>
       </c>
       <c r="EE83" s="1">
         <v>0</v>
       </c>
-      <c r="EF83" s="24">
+      <c r="EF83" s="23">
         <v>44301</v>
       </c>
     </row>
     <row r="84" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A84" s="23">
+      <c r="A84" s="22">
         <v>44302</v>
       </c>
       <c r="EE84" s="1">
         <v>0</v>
       </c>
-      <c r="EF84" s="24">
+      <c r="EF84" s="23">
         <v>44302</v>
       </c>
     </row>
     <row r="85" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A85" s="23">
+      <c r="A85" s="22">
         <v>44303</v>
       </c>
       <c r="EE85" s="1">
         <v>0</v>
       </c>
-      <c r="EF85" s="24">
+      <c r="EF85" s="23">
         <v>44303</v>
       </c>
     </row>
@@ -28666,35 +28857,35 @@
       </c>
     </row>
     <row r="178" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A178" s="23">
+      <c r="A178" s="22">
         <v>43938</v>
       </c>
       <c r="EE178" s="1">
         <v>0</v>
       </c>
-      <c r="EF178" s="24">
+      <c r="EF178" s="23">
         <v>43938</v>
       </c>
     </row>
     <row r="179" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A179" s="23">
+      <c r="A179" s="22">
         <v>43939</v>
       </c>
       <c r="EE179" s="1">
         <v>0</v>
       </c>
-      <c r="EF179" s="24">
+      <c r="EF179" s="23">
         <v>43939</v>
       </c>
     </row>
     <row r="180" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A180" s="23">
+      <c r="A180" s="22">
         <v>43940</v>
       </c>
       <c r="EE180" s="1">
         <v>0</v>
       </c>
-      <c r="EF180" s="24">
+      <c r="EF180" s="23">
         <v>43940</v>
       </c>
     </row>
@@ -46170,73 +46361,73 @@
       <c r="A2" s="34" t="s">
         <v>660</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D2,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>28.5</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D2,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>1839.571428571428</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <f>MIN(E2, 0)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="25">
-        <v>0</v>
-      </c>
-      <c r="J2" s="26">
+      <c r="H2" s="24">
+        <v>0</v>
+      </c>
+      <c r="J2" s="25">
         <v>300</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <f>-(G2 + G3) / J2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="25">
         <f>ROUND(K2, 0)</f>
         <v>0</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="S2" s="26">
+      <c r="S2" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D3,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>75</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D3,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>325.71428571428572</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <f>MIN(E3, 0)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>0</v>
       </c>
     </row>
@@ -46244,195 +46435,195 @@
       <c r="A6" s="34" t="s">
         <v>662</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D6,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>192</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D6,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>638.57142857142856</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <f t="shared" ref="G6:G12" si="0">MIN(E6, 0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="25">
-        <v>0</v>
-      </c>
-      <c r="J6" s="26">
+      <c r="H6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
         <v>400</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <f>-(G6 + G7 + G8 + G9 + G10 + G11 + G12) / J6</f>
         <v>1.8882250000000003</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <f>ROUND(K6, 0)</f>
         <v>2</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="25" t="s">
         <v>663</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D7,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>16473</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D7,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>7586.5714285714284</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D8,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>14864.2</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D8,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>8830.4571428571417</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D9,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>-25.2</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D9,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>200.91428571428571</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <f t="shared" si="0"/>
         <v>-25.2</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="25" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D10,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>-726.84</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D10,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>2217.7028571428568</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <f t="shared" si="0"/>
         <v>-726.84</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D11,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>-3.25</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D11,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <f t="shared" si="0"/>
         <v>-3.25</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D12,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>220.5</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D12,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>33.428571428571431</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>0</v>
       </c>
     </row>
@@ -46440,70 +46631,70 @@
       <c r="A15" s="34" t="s">
         <v>664</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D15,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>243</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D15,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>641.78571428571422</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <f>MIN(E15, 0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="25">
-        <v>0</v>
-      </c>
-      <c r="J15" s="26">
+      <c r="H15" s="24">
+        <v>0</v>
+      </c>
+      <c r="J15" s="25">
         <v>200</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="25">
         <f>-(G15 + G16) / J15</f>
         <v>0.76800000000000002</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="25">
         <f>ROUND(K15, 0)</f>
         <v>1</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="R15" s="25" t="s">
         <v>665</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="25">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="25" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D16,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>-153.6</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D16,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>401.14285714285722</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <f>MIN(E16, 0)</f>
         <v>-153.6</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="24">
         <v>0</v>
       </c>
     </row>
@@ -46511,70 +46702,70 @@
       <c r="A19" s="34" t="s">
         <v>666</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D19,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>-25.2</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D19,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>116.2285714285714</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="24">
         <f>MIN(E19, 0)</f>
         <v>-25.2</v>
       </c>
-      <c r="H19" s="25">
-        <v>0</v>
-      </c>
-      <c r="J19" s="26">
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="J19" s="25">
         <v>250</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="25">
         <f>-(G19 + G20) / J19</f>
         <v>0.98639999999999994</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="25">
         <f>ROUND(K19, 0)</f>
         <v>1</v>
       </c>
-      <c r="R19" s="26" t="s">
+      <c r="R19" s="25" t="s">
         <v>667</v>
       </c>
-      <c r="S19" s="26">
+      <c r="S19" s="25">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="25" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D20,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>-221.4</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D20,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>7287.7714285714283</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="24">
         <f>MIN(E20, 0)</f>
         <v>-221.4</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="24">
         <v>0</v>
       </c>
     </row>
@@ -46582,70 +46773,70 @@
       <c r="A23" s="34" t="s">
         <v>668</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D23,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>-21.600000000000009</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D23,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>107.3142857142857</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="24">
         <f>MIN(E23, 0)</f>
         <v>-21.600000000000009</v>
       </c>
-      <c r="H23" s="25">
-        <v>0</v>
-      </c>
-      <c r="J23" s="26">
+      <c r="H23" s="24">
+        <v>0</v>
+      </c>
+      <c r="J23" s="25">
         <v>350</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="25">
         <f>-(G23 + G24) / J23</f>
         <v>0.26228571428571434</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="25">
         <f>ROUND(K23, 0)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="26" t="s">
+      <c r="R23" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="S23" s="26">
+      <c r="S23" s="25">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="25" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D24,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>-70.2</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D24,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>263.42857142857139</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="24">
         <f>MIN(E24, 0)</f>
         <v>-70.2</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="24">
         <v>0</v>
       </c>
     </row>
@@ -46653,45 +46844,45 @@
       <c r="A27" s="34" t="s">
         <v>670</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D27,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>-70.600000000000023</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D27,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>424.85714285714289</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <f>MIN(E27, 0)</f>
         <v>-70.600000000000023</v>
       </c>
-      <c r="H27" s="25">
-        <v>0</v>
-      </c>
-      <c r="J27" s="26">
+      <c r="H27" s="24">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25">
         <v>300</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="25">
         <f>-(G27) / J27</f>
         <v>0.23533333333333342</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="25">
         <f>ROUND(K27, 0)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="26" t="s">
+      <c r="R27" s="25" t="s">
         <v>671</v>
       </c>
-      <c r="S27" s="26">
+      <c r="S27" s="25">
         <v>14</v>
       </c>
     </row>
@@ -46699,56 +46890,50 @@
       <c r="A30" s="34" t="s">
         <v>672</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D30,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>22.4</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="24">
         <f>IFERROR(INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D30,'файл остатки'!$A$5:$DK$5,0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="24">
         <f>MIN(E30, 0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="25">
-        <v>0</v>
-      </c>
-      <c r="J30" s="26">
+      <c r="H30" s="24">
+        <v>0</v>
+      </c>
+      <c r="J30" s="25">
         <v>250</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="25">
         <f>-(G30) / J30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="25">
         <f>ROUND(K30, 0)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="26" t="s">
+      <c r="R30" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="S30" s="26">
+      <c r="S30" s="25">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B30"/>
     <mergeCell ref="A30"/>
     <mergeCell ref="B19:B20"/>
@@ -46757,6 +46942,12 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B27"/>
     <mergeCell ref="A27"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -46771,9 +46962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46792,7 +46983,7 @@
     <col min="13" max="13" width="3.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="8.5" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="13" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="17.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="16.83203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="17" style="1" customWidth="1"/>
@@ -46801,25 +46992,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>649</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>675</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>676</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>678</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="38" t="s">
         <v>679</v>
       </c>
       <c r="H1" s="39" t="s">
@@ -46828,88 +47019,90 @@
       <c r="I1" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="15" t="s">
+      <c r="J1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="Q1" s="43" t="s">
         <v>682</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="R1" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="S1" s="15" t="s">
         <v>684</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="40"/>
       <c r="I2" s="42"/>
-      <c r="J2" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="L2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="N2" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="27">
+      <c r="M2" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="26">
         <v>124740</v>
       </c>
-      <c r="S2" s="18">
-        <f ca="1">SUM(H3:H129)</f>
+      <c r="S2" s="17">
+        <f ca="1">SUMPRODUCT(H3:H122, Q3:Q122)</f>
         <v>124740</v>
       </c>
-      <c r="T2" s="19">
+      <c r="T2" s="18">
         <f ca="1">R2-S2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
-        <f t="shared" ref="A3:A34" ca="1" si="0">IF(J3="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M3)))))</f>
+      <c r="A3" s="27">
+        <f t="shared" ref="A3:A23" ca="1" si="0">IF(J3="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M3)))))</f>
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>664</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>200</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <v>3</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="F3" s="28">
-        <v>209</v>
-      </c>
-      <c r="G3" s="20" t="str">
+      <c r="F3" s="27">
+        <v>200</v>
+      </c>
+      <c r="G3" s="19" t="str">
         <f ca="1">IF(H3="", IF(J3="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N3)),IF(J3="", "", INDIRECT("N" &amp; ROW() - 1) - N3))</f>
         <v/>
       </c>
-      <c r="H3" s="21" t="str">
+      <c r="H3" s="20" t="str">
         <f t="shared" ref="H3:H34" ca="1" si="1">IF(J3 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="21"/>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K34" ca="1" si="2">IF(J3 = "-", -INDIRECT("C" &amp; ROW() - 1),F3)</f>
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L34" ca="1" si="3">IF(J3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K3)))), 0)</f>
@@ -46925,35 +47118,35 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="str">
+      <c r="A4" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="B4" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="G4" s="19">
         <f ca="1">IF(H4="", IF(J4="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N4)),IF(J4="", "", INDIRECT("N" &amp; ROW() - 1) - N4))</f>
-        <v>-9</v>
-      </c>
-      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>5670</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="30">
         <v>200</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>688</v>
+      <c r="J4" s="29" t="s">
+        <v>689</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -46961,7 +47154,7 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="4"/>
@@ -46969,38 +47162,41 @@
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>300</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>3</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>300</v>
       </c>
-      <c r="G5" s="20" t="str">
+      <c r="G5" s="19" t="str">
         <f ca="1">IF(H5="", IF(J5="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N5)),IF(J5="", "", INDIRECT("N" &amp; ROW() - 1) - N5))</f>
         <v/>
       </c>
-      <c r="H5" s="21" t="str">
+      <c r="H5" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="21"/>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>300</v>
@@ -47015,39 +47211,39 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="str">
+      <c r="A6" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="B6" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="G6" s="19">
         <f ca="1">IF(H6="", IF(J6="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N6)),IF(J6="", "", INDIRECT("N" &amp; ROW() - 1) - N6))</f>
         <v>0</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>5670</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="30">
         <v>300</v>
       </c>
-      <c r="J6" s="30" t="s">
-        <v>688</v>
+      <c r="J6" s="29" t="s">
+        <v>689</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -47055,7 +47251,7 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="4"/>
@@ -47063,38 +47259,41 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>400</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>3</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>25</v>
       </c>
-      <c r="G7" s="20" t="str">
+      <c r="G7" s="19" t="str">
         <f ca="1">IF(H7="", IF(J7="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N7)),IF(J7="", "", INDIRECT("N" &amp; ROW() - 1) - N7))</f>
         <v/>
       </c>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="21"/>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>25</v>
@@ -47109,38 +47308,38 @@
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="27">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>400</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>3</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>375</v>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="19" t="str">
         <f ca="1">IF(H8="", IF(J8="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N8)),IF(J8="", "", INDIRECT("N" &amp; ROW() - 1) - N8))</f>
         <v/>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="21"/>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>375</v>
@@ -47155,39 +47354,39 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="str">
+      <c r="A9" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G9" s="20">
+      <c r="B9" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="G9" s="19">
         <f ca="1">IF(H9="", IF(J9="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N9)),IF(J9="", "", INDIRECT("N" &amp; ROW() - 1) - N9))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>5670</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="30">
         <v>400</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>688</v>
+      <c r="J9" s="29" t="s">
+        <v>689</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -47195,7 +47394,7 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="4"/>
@@ -47203,38 +47402,41 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="27">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>400</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>3</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>400</v>
       </c>
-      <c r="G10" s="20" t="str">
+      <c r="G10" s="19" t="str">
         <f ca="1">IF(H10="", IF(J10="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N10)),IF(J10="", "", INDIRECT("N" &amp; ROW() - 1) - N10))</f>
         <v/>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="21"/>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>400</v>
@@ -47249,39 +47451,39 @@
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="str">
+      <c r="A11" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G11" s="20">
+      <c r="B11" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="G11" s="19">
         <f ca="1">IF(H11="", IF(J11="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N11)),IF(J11="", "", INDIRECT("N" &amp; ROW() - 1) - N11))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>5670</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>400</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>688</v>
+      <c r="J11" s="29" t="s">
+        <v>689</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -47289,7 +47491,7 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="4"/>
@@ -47297,38 +47499,41 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="27">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>400</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>3</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F12" s="28">
+      <c r="E12" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" s="27">
         <v>400</v>
       </c>
-      <c r="G12" s="20" t="str">
+      <c r="G12" s="19" t="str">
         <f ca="1">IF(H12="", IF(J12="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N12)),IF(J12="", "", INDIRECT("N" &amp; ROW() - 1) - N12))</f>
         <v/>
       </c>
-      <c r="H12" s="21" t="str">
+      <c r="H12" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="21"/>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>400</v>
@@ -47343,39 +47548,39 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="str">
+      <c r="A13" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G13" s="20">
+      <c r="B13" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="G13" s="19">
         <f ca="1">IF(H13="", IF(J13="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N13)),IF(J13="", "", INDIRECT("N" &amp; ROW() - 1) - N13))</f>
         <v>0</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>5670</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="30">
         <v>400</v>
       </c>
-      <c r="J13" s="30" t="s">
-        <v>688</v>
+      <c r="J13" s="29" t="s">
+        <v>689</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -47383,7 +47588,7 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="4"/>
@@ -47391,38 +47596,41 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="27">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>400</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>3</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>400</v>
       </c>
-      <c r="G14" s="20" t="str">
+      <c r="G14" s="19" t="str">
         <f ca="1">IF(H14="", IF(J14="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N14)),IF(J14="", "", INDIRECT("N" &amp; ROW() - 1) - N14))</f>
         <v/>
       </c>
-      <c r="H14" s="21" t="str">
+      <c r="H14" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="21"/>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>400</v>
@@ -47437,39 +47645,39 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="str">
+      <c r="A15" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G15" s="20">
+      <c r="B15" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="G15" s="19">
         <f ca="1">IF(H15="", IF(J15="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N15)),IF(J15="", "", INDIRECT("N" &amp; ROW() - 1) - N15))</f>
         <v>0</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <f t="shared" ca="1" si="1"/>
         <v>5670</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="30">
         <v>400</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>688</v>
+      <c r="J15" s="29" t="s">
+        <v>689</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -47477,7 +47685,7 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="4"/>
@@ -47485,41 +47693,44 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C16" s="28">
-        <v>400</v>
-      </c>
-      <c r="D16" s="28">
-        <v>3</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F16" s="28">
-        <v>400</v>
-      </c>
-      <c r="G16" s="20" t="str">
+      <c r="B16" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="C16" s="27">
+        <v>250</v>
+      </c>
+      <c r="D16" s="27">
+        <v>2</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="27">
+        <v>25</v>
+      </c>
+      <c r="G16" s="19" t="str">
         <f ca="1">IF(H16="", IF(J16="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N16)),IF(J16="", "", INDIRECT("N" &amp; ROW() - 1) - N16))</f>
         <v/>
       </c>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="21"/>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -47531,329 +47742,333 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="str">
+    <row r="17" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="C17" s="27">
+        <v>250</v>
+      </c>
+      <c r="D17" s="27">
+        <v>2</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="27">
+        <v>225</v>
+      </c>
+      <c r="G17" s="19" t="str">
+        <f ca="1">IF(H17="", IF(J17="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N17)),IF(J17="", "", INDIRECT("N" &amp; ROW() - 1) - N17))</f>
+        <v/>
+      </c>
+      <c r="H17" s="20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="K17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G17" s="20">
-        <f ca="1">IF(H17="", IF(J17="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N17)),IF(J17="", "", INDIRECT("N" &amp; ROW() - 1) - N17))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="21">
+      <c r="B18" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="G18" s="19">
+        <f ca="1">IF(H18="", IF(J18="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N18)),IF(J18="", "", INDIRECT("N" &amp; ROW() - 1) - N18))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5670</v>
-      </c>
-      <c r="I17" s="31">
-        <v>400</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="K17" s="1">
+        <v>3780</v>
+      </c>
+      <c r="I18" s="30">
+        <v>250</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="K18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-400</v>
-      </c>
-      <c r="L17" s="1">
+        <v>-250</v>
+      </c>
+      <c r="L18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
+    <row r="19" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C18" s="28">
-        <v>400</v>
-      </c>
-      <c r="D18" s="28">
-        <v>3</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="28">
-        <v>400</v>
-      </c>
-      <c r="G18" s="20" t="str">
-        <f ca="1">IF(H18="", IF(J18="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N18)),IF(J18="", "", INDIRECT("N" &amp; ROW() - 1) - N18))</f>
+      <c r="B19" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="C19" s="27">
+        <v>300</v>
+      </c>
+      <c r="D19" s="27">
+        <v>2</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="27">
+        <v>300</v>
+      </c>
+      <c r="G19" s="19" t="str">
+        <f ca="1">IF(H19="", IF(J19="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N19)),IF(J19="", "", INDIRECT("N" &amp; ROW() - 1) - N19))</f>
         <v/>
       </c>
-      <c r="H18" s="21" t="str">
+      <c r="H19" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I18" s="22"/>
-      <c r="K18" s="1">
+      <c r="I19" s="21"/>
+      <c r="K19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="L18" s="1">
+        <v>300</v>
+      </c>
+      <c r="L19" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M19" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="str">
+    <row r="20" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G19" s="20">
-        <f ca="1">IF(H19="", IF(J19="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N19)),IF(J19="", "", INDIRECT("N" &amp; ROW() - 1) - N19))</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="21">
+      <c r="B20" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="G20" s="19">
+        <f ca="1">IF(H20="", IF(J20="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N20)),IF(J20="", "", INDIRECT("N" &amp; ROW() - 1) - N20))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5670</v>
-      </c>
-      <c r="I19" s="31">
-        <v>400</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="K19" s="1">
+        <v>3780</v>
+      </c>
+      <c r="I20" s="30">
+        <v>300</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-400</v>
-      </c>
-      <c r="L19" s="1">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+    <row r="21" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C20" s="28">
-        <v>400</v>
-      </c>
-      <c r="D20" s="28">
-        <v>3</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F20" s="28">
-        <v>400</v>
-      </c>
-      <c r="G20" s="20" t="str">
-        <f ca="1">IF(H20="", IF(J20="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N20)),IF(J20="", "", INDIRECT("N" &amp; ROW() - 1) - N20))</f>
+      <c r="B21" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="C21" s="27">
+        <v>350</v>
+      </c>
+      <c r="D21" s="27">
+        <v>2</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="F21" s="27">
+        <v>22</v>
+      </c>
+      <c r="G21" s="19" t="str">
+        <f ca="1">IF(H21="", IF(J21="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N21)),IF(J21="", "", INDIRECT("N" &amp; ROW() - 1) - N21))</f>
         <v/>
       </c>
-      <c r="H20" s="21" t="str">
+      <c r="H21" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I20" s="22"/>
-      <c r="K20" s="1">
+      <c r="I21" s="21"/>
+      <c r="K21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="L20" s="1">
+        <v>22</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M21" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N21" s="1">
         <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
+      <c r="B22" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="C22" s="27">
+        <v>350</v>
+      </c>
+      <c r="D22" s="27">
+        <v>2</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" s="27">
+        <v>328</v>
+      </c>
+      <c r="G22" s="19" t="str">
+        <f ca="1">IF(H22="", IF(J22="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N22)),IF(J22="", "", INDIRECT("N" &amp; ROW() - 1) - N22))</f>
+        <v/>
+      </c>
+      <c r="H22" s="20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="K22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="str">
+    <row r="23" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G21" s="20">
-        <f ca="1">IF(H21="", IF(J21="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N21)),IF(J21="", "", INDIRECT("N" &amp; ROW() - 1) - N21))</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="21">
+      <c r="B23" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="G23" s="19">
+        <f ca="1">IF(H23="", IF(J23="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N23)),IF(J23="", "", INDIRECT("N" &amp; ROW() - 1) - N23))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5670</v>
-      </c>
-      <c r="I21" s="31">
-        <v>400</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-400</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C22" s="28">
-        <v>400</v>
-      </c>
-      <c r="D22" s="28">
-        <v>3</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" s="28">
-        <v>400</v>
-      </c>
-      <c r="G22" s="20" t="str">
-        <f ca="1">IF(H22="", IF(J22="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N22)),IF(J22="", "", INDIRECT("N" &amp; ROW() - 1) - N22))</f>
-        <v/>
-      </c>
-      <c r="H22" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="K22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G23" s="20">
-        <f ca="1">IF(H23="", IF(J23="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N23)),IF(J23="", "", INDIRECT("N" &amp; ROW() - 1) - N23))</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>5670</v>
-      </c>
-      <c r="I23" s="31">
-        <v>400</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>688</v>
+        <v>3780</v>
+      </c>
+      <c r="I23" s="30">
+        <v>350</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>689</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-400</v>
+        <v>-350</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="4"/>
@@ -47861,41 +48076,25 @@
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C24" s="28">
-        <v>400</v>
-      </c>
-      <c r="D24" s="28">
-        <v>3</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F24" s="28">
-        <v>400</v>
-      </c>
-      <c r="G24" s="20" t="str">
+    <row r="24" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="19" t="str">
         <f ca="1">IF(H24="", IF(J24="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N24)),IF(J24="", "", INDIRECT("N" &amp; ROW() - 1) - N24))</f>
         <v/>
       </c>
-      <c r="H24" s="21" t="str">
+      <c r="H24" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I24" s="22"/>
+      <c r="I24" s="21"/>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -47907,89 +48106,49 @@
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
+    <row r="25" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="19" t="str">
+        <f ca="1">IF(H25="", IF(J25="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N25)),IF(J25="", "", INDIRECT("N" &amp; ROW() - 1) - N25))</f>
         <v/>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G25" s="20">
-        <f ca="1">IF(H25="", IF(J25="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N25)),IF(J25="", "", INDIRECT("N" &amp; ROW() - 1) - N25))</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5670</v>
-      </c>
-      <c r="I25" s="31">
-        <v>400</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>688</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I25" s="21"/>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C26" s="28">
-        <v>400</v>
-      </c>
-      <c r="D26" s="28">
-        <v>3</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F26" s="28">
-        <v>400</v>
-      </c>
-      <c r="G26" s="20" t="str">
+    <row r="26" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="19" t="str">
         <f ca="1">IF(H26="", IF(J26="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N26)),IF(J26="", "", INDIRECT("N" &amp; ROW() - 1) - N26))</f>
         <v/>
       </c>
-      <c r="H26" s="21" t="str">
+      <c r="H26" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I26" s="22"/>
+      <c r="I26" s="21"/>
       <c r="K26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -48001,89 +48160,49 @@
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
+    <row r="27" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="19" t="str">
+        <f ca="1">IF(H27="", IF(J27="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N27)),IF(J27="", "", INDIRECT("N" &amp; ROW() - 1) - N27))</f>
         <v/>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G27" s="20">
-        <f ca="1">IF(H27="", IF(J27="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N27)),IF(J27="", "", INDIRECT("N" &amp; ROW() - 1) - N27))</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="21">
+      <c r="H27" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5670</v>
-      </c>
-      <c r="I27" s="31">
-        <v>400</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>688</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I27" s="21"/>
       <c r="K27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C28" s="28">
-        <v>400</v>
-      </c>
-      <c r="D28" s="28">
-        <v>3</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F28" s="28">
-        <v>400</v>
-      </c>
-      <c r="G28" s="20" t="str">
+    <row r="28" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="19" t="str">
         <f ca="1">IF(H28="", IF(J28="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N28)),IF(J28="", "", INDIRECT("N" &amp; ROW() - 1) - N28))</f>
         <v/>
       </c>
-      <c r="H28" s="21" t="str">
+      <c r="H28" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I28" s="22"/>
+      <c r="I28" s="21"/>
       <c r="K28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -48095,89 +48214,49 @@
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
+    <row r="29" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="19" t="str">
+        <f ca="1">IF(H29="", IF(J29="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N29)),IF(J29="", "", INDIRECT("N" &amp; ROW() - 1) - N29))</f>
         <v/>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G29" s="20">
-        <f ca="1">IF(H29="", IF(J29="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N29)),IF(J29="", "", INDIRECT("N" &amp; ROW() - 1) - N29))</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="21">
+      <c r="H29" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5670</v>
-      </c>
-      <c r="I29" s="31">
-        <v>400</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>688</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I29" s="21"/>
       <c r="K29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C30" s="28">
-        <v>400</v>
-      </c>
-      <c r="D30" s="28">
-        <v>3</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F30" s="28">
-        <v>400</v>
-      </c>
-      <c r="G30" s="20" t="str">
+    <row r="30" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="19" t="str">
         <f ca="1">IF(H30="", IF(J30="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N30)),IF(J30="", "", INDIRECT("N" &amp; ROW() - 1) - N30))</f>
         <v/>
       </c>
-      <c r="H30" s="21" t="str">
+      <c r="H30" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I30" s="22"/>
+      <c r="I30" s="21"/>
       <c r="K30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -48189,89 +48268,49 @@
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
+    <row r="31" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="19" t="str">
+        <f ca="1">IF(H31="", IF(J31="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N31)),IF(J31="", "", INDIRECT("N" &amp; ROW() - 1) - N31))</f>
         <v/>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G31" s="20">
-        <f ca="1">IF(H31="", IF(J31="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N31)),IF(J31="", "", INDIRECT("N" &amp; ROW() - 1) - N31))</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5670</v>
-      </c>
-      <c r="I31" s="31">
-        <v>400</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>688</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I31" s="21"/>
       <c r="K31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C32" s="28">
-        <v>400</v>
-      </c>
-      <c r="D32" s="28">
-        <v>3</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F32" s="28">
-        <v>400</v>
-      </c>
-      <c r="G32" s="20" t="str">
+    <row r="32" spans="1:17" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="19" t="str">
         <f ca="1">IF(H32="", IF(J32="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N32)),IF(J32="", "", INDIRECT("N" &amp; ROW() - 1) - N32))</f>
         <v/>
       </c>
-      <c r="H32" s="21" t="str">
+      <c r="H32" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I32" s="22"/>
+      <c r="I32" s="21"/>
       <c r="K32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -48283,89 +48322,49 @@
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="str">
-        <f t="shared" ca="1" si="0"/>
+    <row r="33" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="19" t="str">
+        <f ca="1">IF(H33="", IF(J33="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N33)),IF(J33="", "", INDIRECT("N" &amp; ROW() - 1) - N33))</f>
         <v/>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G33" s="20">
-        <f ca="1">IF(H33="", IF(J33="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N33)),IF(J33="", "", INDIRECT("N" &amp; ROW() - 1) - N33))</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="21">
+      <c r="H33" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5670</v>
-      </c>
-      <c r="I33" s="31">
-        <v>400</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>688</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I33" s="21"/>
       <c r="K33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C34" s="28">
-        <v>400</v>
-      </c>
-      <c r="D34" s="28">
-        <v>3</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F34" s="28">
-        <v>400</v>
-      </c>
-      <c r="G34" s="20" t="str">
+    <row r="34" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="19" t="str">
         <f ca="1">IF(H34="", IF(J34="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N34)),IF(J34="", "", INDIRECT("N" &amp; ROW() - 1) - N34))</f>
         <v/>
       </c>
-      <c r="H34" s="21" t="str">
+      <c r="H34" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="I34" s="22"/>
+      <c r="I34" s="21"/>
       <c r="K34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -48377,3153 +48376,2868 @@
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="str">
-        <f t="shared" ref="A35:A51" ca="1" si="6">IF(J35="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M35)))))</f>
+    <row r="35" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="19" t="str">
+        <f ca="1">IF(H35="", IF(J35="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N35)),IF(J35="", "", INDIRECT("N" &amp; ROW() - 1) - N35))</f>
         <v/>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G35" s="20">
-        <f ca="1">IF(H35="", IF(J35="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N35)),IF(J35="", "", INDIRECT("N" &amp; ROW() - 1) - N35))</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="21">
-        <f t="shared" ref="H35:H66" ca="1" si="7">IF(J35 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v>5670</v>
-      </c>
-      <c r="I35" s="31">
-        <v>400</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>688</v>
-      </c>
+      <c r="H35" s="20" t="str">
+        <f t="shared" ref="H35:H66" ca="1" si="6">IF(J35 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I35" s="21"/>
       <c r="K35" s="1">
-        <f t="shared" ref="K35:K66" ca="1" si="8">IF(J35 = "-", -INDIRECT("C" &amp; ROW() - 1),F35)</f>
-        <v>-400</v>
+        <f t="shared" ref="K35:K66" ca="1" si="7">IF(J35 = "-", -INDIRECT("C" &amp; ROW() - 1),F35)</f>
+        <v>0</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" ref="L35:L66" ca="1" si="9">IF(J35 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K35)))), 0)</f>
-        <v>9</v>
+        <f t="shared" ref="L35:L66" ca="1" si="8">IF(J35 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K35)))), 0)</f>
+        <v>0</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" ref="M35:M66" si="10">IF(J35="-",1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="M35:M66" si="9">IF(J35="-",1,0)</f>
+        <v>0</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" ref="N35:N66" ca="1" si="11">IF(L35 = 0, INDIRECT("N" &amp; ROW() - 1), L35)</f>
-        <v>9</v>
+        <f t="shared" ref="N35:N66" ca="1" si="10">IF(L35 = 0, INDIRECT("N" &amp; ROW() - 1), L35)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C36" s="28">
-        <v>400</v>
-      </c>
-      <c r="D36" s="28">
-        <v>3</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F36" s="28">
-        <v>400</v>
-      </c>
-      <c r="G36" s="20" t="str">
+    <row r="36" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="19" t="str">
         <f ca="1">IF(H36="", IF(J36="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N36)),IF(J36="", "", INDIRECT("N" &amp; ROW() - 1) - N36))</f>
         <v/>
       </c>
-      <c r="H36" s="21" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="K36" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="str">
+      <c r="H36" s="20" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G37" s="20">
+      <c r="I36" s="21"/>
+      <c r="K36" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="19" t="str">
         <f ca="1">IF(H37="", IF(J37="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N37)),IF(J37="", "", INDIRECT("N" &amp; ROW() - 1) - N37))</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="21">
+        <v/>
+      </c>
+      <c r="H37" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I37" s="21"/>
+      <c r="K37" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5670</v>
-      </c>
-      <c r="I37" s="31">
-        <v>400</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-400</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C38" s="28">
-        <v>400</v>
-      </c>
-      <c r="D38" s="28">
-        <v>3</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F38" s="28">
-        <v>400</v>
-      </c>
-      <c r="G38" s="20" t="str">
+    <row r="38" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="19" t="str">
         <f ca="1">IF(H38="", IF(J38="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N38)),IF(J38="", "", INDIRECT("N" &amp; ROW() - 1) - N38))</f>
         <v/>
       </c>
-      <c r="H38" s="21" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I38" s="22"/>
-      <c r="K38" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="str">
+      <c r="H38" s="20" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G39" s="20">
+      <c r="I38" s="21"/>
+      <c r="K38" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="19" t="str">
         <f ca="1">IF(H39="", IF(J39="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N39)),IF(J39="", "", INDIRECT("N" &amp; ROW() - 1) - N39))</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="21">
+        <v/>
+      </c>
+      <c r="H39" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="K39" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5670</v>
-      </c>
-      <c r="I39" s="31">
-        <v>400</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-400</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C40" s="28">
-        <v>400</v>
-      </c>
-      <c r="D40" s="28">
-        <v>3</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F40" s="28">
-        <v>400</v>
-      </c>
-      <c r="G40" s="20" t="str">
+    <row r="40" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="19" t="str">
         <f ca="1">IF(H40="", IF(J40="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N40)),IF(J40="", "", INDIRECT("N" &amp; ROW() - 1) - N40))</f>
         <v/>
       </c>
-      <c r="H40" s="21" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I40" s="22"/>
-      <c r="K40" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="L40" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="str">
+      <c r="H40" s="20" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G41" s="20">
+      <c r="I40" s="21"/>
+      <c r="K40" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="19" t="str">
         <f ca="1">IF(H41="", IF(J41="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N41)),IF(J41="", "", INDIRECT("N" &amp; ROW() - 1) - N41))</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="21">
+        <v/>
+      </c>
+      <c r="H41" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I41" s="21"/>
+      <c r="K41" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5670</v>
-      </c>
-      <c r="I41" s="31">
-        <v>400</v>
-      </c>
-      <c r="J41" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-400</v>
-      </c>
-      <c r="L41" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C42" s="28">
-        <v>400</v>
-      </c>
-      <c r="D42" s="28">
-        <v>3</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F42" s="28">
-        <v>400</v>
-      </c>
-      <c r="G42" s="20" t="str">
+    <row r="42" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="19" t="str">
         <f ca="1">IF(H42="", IF(J42="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N42)),IF(J42="", "", INDIRECT("N" &amp; ROW() - 1) - N42))</f>
         <v/>
       </c>
-      <c r="H42" s="21" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I42" s="22"/>
-      <c r="K42" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="L42" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="str">
+      <c r="H42" s="20" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G43" s="20">
+      <c r="I42" s="21"/>
+      <c r="K42" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="19" t="str">
         <f ca="1">IF(H43="", IF(J43="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N43)),IF(J43="", "", INDIRECT("N" &amp; ROW() - 1) - N43))</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="21">
+        <v/>
+      </c>
+      <c r="H43" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I43" s="21"/>
+      <c r="K43" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5670</v>
-      </c>
-      <c r="I43" s="31">
-        <v>400</v>
-      </c>
-      <c r="J43" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-400</v>
-      </c>
-      <c r="L43" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>666</v>
-      </c>
-      <c r="C44" s="28">
-        <v>250</v>
-      </c>
-      <c r="D44" s="28">
-        <v>2</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="F44" s="28">
-        <v>25</v>
-      </c>
-      <c r="G44" s="20" t="str">
+    <row r="44" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G44" s="19" t="str">
         <f ca="1">IF(H44="", IF(J44="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N44)),IF(J44="", "", INDIRECT("N" &amp; ROW() - 1) - N44))</f>
         <v/>
       </c>
-      <c r="H44" s="21" t="str">
+      <c r="H44" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="K44" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I44" s="22"/>
-      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="L44" s="1">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>666</v>
-      </c>
-      <c r="C45" s="28">
-        <v>250</v>
-      </c>
-      <c r="D45" s="28">
-        <v>2</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="F45" s="28">
-        <v>225</v>
-      </c>
-      <c r="G45" s="20" t="str">
+    <row r="45" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G45" s="19" t="str">
         <f ca="1">IF(H45="", IF(J45="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N45)),IF(J45="", "", INDIRECT("N" &amp; ROW() - 1) - N45))</f>
         <v/>
       </c>
-      <c r="H45" s="21" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I45" s="22"/>
-      <c r="K45" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>225</v>
-      </c>
-      <c r="L45" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="30" t="str">
+      <c r="H45" s="20" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="B46" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G46" s="20">
+      <c r="I45" s="21"/>
+      <c r="K45" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="19" t="str">
         <f ca="1">IF(H46="", IF(J46="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N46)),IF(J46="", "", INDIRECT("N" &amp; ROW() - 1) - N46))</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="21">
+        <v/>
+      </c>
+      <c r="H46" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I46" s="21"/>
+      <c r="K46" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3780</v>
-      </c>
-      <c r="I46" s="31">
-        <v>250</v>
-      </c>
-      <c r="J46" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-250</v>
-      </c>
-      <c r="L46" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>670</v>
-      </c>
-      <c r="C47" s="28">
-        <v>300</v>
-      </c>
-      <c r="D47" s="28">
-        <v>2</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="F47" s="28">
-        <v>300</v>
-      </c>
-      <c r="G47" s="20" t="str">
+    <row r="47" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="19" t="str">
         <f ca="1">IF(H47="", IF(J47="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N47)),IF(J47="", "", INDIRECT("N" &amp; ROW() - 1) - N47))</f>
         <v/>
       </c>
-      <c r="H47" s="21" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I47" s="22"/>
-      <c r="K47" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>300</v>
-      </c>
-      <c r="L47" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="str">
+      <c r="H47" s="20" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G48" s="20">
+      <c r="I47" s="21"/>
+      <c r="K47" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="19" t="str">
         <f ca="1">IF(H48="", IF(J48="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N48)),IF(J48="", "", INDIRECT("N" &amp; ROW() - 1) - N48))</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="21">
+        <v/>
+      </c>
+      <c r="H48" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I48" s="21"/>
+      <c r="K48" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3780</v>
-      </c>
-      <c r="I48" s="31">
-        <v>300</v>
-      </c>
-      <c r="J48" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-300</v>
-      </c>
-      <c r="L48" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>668</v>
-      </c>
-      <c r="C49" s="28">
-        <v>350</v>
-      </c>
-      <c r="D49" s="28">
-        <v>2</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="F49" s="28">
-        <v>22</v>
-      </c>
-      <c r="G49" s="20" t="str">
+    <row r="49" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="19" t="str">
         <f ca="1">IF(H49="", IF(J49="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N49)),IF(J49="", "", INDIRECT("N" &amp; ROW() - 1) - N49))</f>
         <v/>
       </c>
-      <c r="H49" s="21" t="str">
+      <c r="H49" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I49" s="21"/>
+      <c r="K49" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I49" s="22"/>
-      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="L49" s="1">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>668</v>
-      </c>
-      <c r="C50" s="28">
-        <v>350</v>
-      </c>
-      <c r="D50" s="28">
-        <v>2</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="F50" s="28">
-        <v>328</v>
-      </c>
-      <c r="G50" s="20" t="str">
+    <row r="50" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="19" t="str">
         <f ca="1">IF(H50="", IF(J50="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N50)),IF(J50="", "", INDIRECT("N" &amp; ROW() - 1) - N50))</f>
         <v/>
       </c>
-      <c r="H50" s="21" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I50" s="22"/>
-      <c r="K50" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>328</v>
-      </c>
-      <c r="L50" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="30" t="str">
+      <c r="H50" s="20" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="G51" s="20">
+      <c r="I50" s="21"/>
+      <c r="K50" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G51" s="19" t="str">
         <f ca="1">IF(H51="", IF(J51="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N51)),IF(J51="", "", INDIRECT("N" &amp; ROW() - 1) - N51))</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="21">
+        <v/>
+      </c>
+      <c r="H51" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I51" s="21"/>
+      <c r="K51" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3780</v>
-      </c>
-      <c r="I51" s="31">
-        <v>350</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-350</v>
-      </c>
-      <c r="L51" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G52" s="20" t="str">
+    <row r="52" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="19" t="str">
         <f ca="1">IF(H52="", IF(J52="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N52)),IF(J52="", "", INDIRECT("N" &amp; ROW() - 1) - N52))</f>
         <v/>
       </c>
-      <c r="H52" s="21" t="str">
+      <c r="H52" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I52" s="21"/>
+      <c r="K52" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I52" s="22"/>
-      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L52" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M52" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G53" s="20" t="str">
+    <row r="53" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G53" s="19" t="str">
         <f ca="1">IF(H53="", IF(J53="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N53)),IF(J53="", "", INDIRECT("N" &amp; ROW() - 1) - N53))</f>
         <v/>
       </c>
-      <c r="H53" s="21" t="str">
+      <c r="H53" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I53" s="21"/>
+      <c r="K53" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I53" s="22"/>
-      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L53" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G54" s="20" t="str">
+    <row r="54" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G54" s="19" t="str">
         <f ca="1">IF(H54="", IF(J54="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N54)),IF(J54="", "", INDIRECT("N" &amp; ROW() - 1) - N54))</f>
         <v/>
       </c>
-      <c r="H54" s="21" t="str">
+      <c r="H54" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I54" s="21"/>
+      <c r="K54" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I54" s="22"/>
-      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L54" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M54" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G55" s="20" t="str">
+    <row r="55" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G55" s="19" t="str">
         <f ca="1">IF(H55="", IF(J55="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N55)),IF(J55="", "", INDIRECT("N" &amp; ROW() - 1) - N55))</f>
         <v/>
       </c>
-      <c r="H55" s="21" t="str">
+      <c r="H55" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I55" s="21"/>
+      <c r="K55" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I55" s="22"/>
-      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L55" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M55" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G56" s="20" t="str">
+    <row r="56" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="19" t="str">
         <f ca="1">IF(H56="", IF(J56="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N56)),IF(J56="", "", INDIRECT("N" &amp; ROW() - 1) - N56))</f>
         <v/>
       </c>
-      <c r="H56" s="21" t="str">
+      <c r="H56" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="K56" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I56" s="22"/>
-      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L56" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M56" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G57" s="20" t="str">
+    <row r="57" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G57" s="19" t="str">
         <f ca="1">IF(H57="", IF(J57="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N57)),IF(J57="", "", INDIRECT("N" &amp; ROW() - 1) - N57))</f>
         <v/>
       </c>
-      <c r="H57" s="21" t="str">
+      <c r="H57" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I57" s="21"/>
+      <c r="K57" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I57" s="22"/>
-      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L57" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M57" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G58" s="20" t="str">
+    <row r="58" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G58" s="19" t="str">
         <f ca="1">IF(H58="", IF(J58="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N58)),IF(J58="", "", INDIRECT("N" &amp; ROW() - 1) - N58))</f>
         <v/>
       </c>
-      <c r="H58" s="21" t="str">
+      <c r="H58" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I58" s="21"/>
+      <c r="K58" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I58" s="22"/>
-      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L58" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M58" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G59" s="20" t="str">
+    <row r="59" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G59" s="19" t="str">
         <f ca="1">IF(H59="", IF(J59="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N59)),IF(J59="", "", INDIRECT("N" &amp; ROW() - 1) - N59))</f>
         <v/>
       </c>
-      <c r="H59" s="21" t="str">
+      <c r="H59" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I59" s="21"/>
+      <c r="K59" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I59" s="22"/>
-      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L59" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G60" s="20" t="str">
+    <row r="60" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="19" t="str">
         <f ca="1">IF(H60="", IF(J60="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N60)),IF(J60="", "", INDIRECT("N" &amp; ROW() - 1) - N60))</f>
         <v/>
       </c>
-      <c r="H60" s="21" t="str">
+      <c r="H60" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="K60" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I60" s="22"/>
-      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L60" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G61" s="20" t="str">
+    <row r="61" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="19" t="str">
         <f ca="1">IF(H61="", IF(J61="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N61)),IF(J61="", "", INDIRECT("N" &amp; ROW() - 1) - N61))</f>
         <v/>
       </c>
-      <c r="H61" s="21" t="str">
+      <c r="H61" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I61" s="21"/>
+      <c r="K61" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I61" s="22"/>
-      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L61" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M61" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G62" s="20" t="str">
+    <row r="62" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G62" s="19" t="str">
         <f ca="1">IF(H62="", IF(J62="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N62)),IF(J62="", "", INDIRECT("N" &amp; ROW() - 1) - N62))</f>
         <v/>
       </c>
-      <c r="H62" s="21" t="str">
+      <c r="H62" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I62" s="21"/>
+      <c r="K62" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I62" s="22"/>
-      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L62" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M62" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G63" s="20" t="str">
+    <row r="63" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="19" t="str">
         <f ca="1">IF(H63="", IF(J63="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N63)),IF(J63="", "", INDIRECT("N" &amp; ROW() - 1) - N63))</f>
         <v/>
       </c>
-      <c r="H63" s="21" t="str">
+      <c r="H63" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I63" s="21"/>
+      <c r="K63" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I63" s="22"/>
-      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L63" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M63" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G64" s="20" t="str">
+    <row r="64" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G64" s="19" t="str">
         <f ca="1">IF(H64="", IF(J64="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N64)),IF(J64="", "", INDIRECT("N" &amp; ROW() - 1) - N64))</f>
         <v/>
       </c>
-      <c r="H64" s="21" t="str">
+      <c r="H64" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I64" s="21"/>
+      <c r="K64" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I64" s="22"/>
-      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L64" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G65" s="20" t="str">
+      <c r="G65" s="19" t="str">
         <f ca="1">IF(H65="", IF(J65="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N65)),IF(J65="", "", INDIRECT("N" &amp; ROW() - 1) - N65))</f>
         <v/>
       </c>
-      <c r="H65" s="21" t="str">
+      <c r="H65" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I65" s="21"/>
+      <c r="K65" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I65" s="22"/>
-      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L65" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G66" s="20" t="str">
+      <c r="G66" s="19" t="str">
         <f ca="1">IF(H66="", IF(J66="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N66)),IF(J66="", "", INDIRECT("N" &amp; ROW() - 1) - N66))</f>
         <v/>
       </c>
-      <c r="H66" s="21" t="str">
+      <c r="H66" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I66" s="21"/>
+      <c r="K66" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="I66" s="22"/>
-      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L66" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M66" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G67" s="20" t="str">
+      <c r="G67" s="19" t="str">
         <f ca="1">IF(H67="", IF(J67="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N67)),IF(J67="", "", INDIRECT("N" &amp; ROW() - 1) - N67))</f>
         <v/>
       </c>
-      <c r="H67" s="21" t="str">
-        <f t="shared" ref="H67:H98" ca="1" si="12">IF(J67 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+      <c r="H67" s="20" t="str">
+        <f t="shared" ref="H67:H98" ca="1" si="11">IF(J67 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I67" s="22"/>
+      <c r="I67" s="21"/>
       <c r="K67" s="1">
-        <f t="shared" ref="K67:K98" ca="1" si="13">IF(J67 = "-", -INDIRECT("C" &amp; ROW() - 1),F67)</f>
+        <f t="shared" ref="K67:K98" ca="1" si="12">IF(J67 = "-", -INDIRECT("C" &amp; ROW() - 1),F67)</f>
         <v>0</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" ref="L67:L74" ca="1" si="14">IF(J67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K67)))), 0)</f>
+        <f t="shared" ref="L67:L98" ca="1" si="13">IF(J67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K67)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" ref="M67:M98" si="15">IF(J67="-",1,0)</f>
+        <f t="shared" ref="M67:M98" si="14">IF(J67="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" ref="N67:N98" ca="1" si="16">IF(L67 = 0, INDIRECT("N" &amp; ROW() - 1), L67)</f>
-        <v>9</v>
+        <f t="shared" ref="N67:N98" ca="1" si="15">IF(L67 = 0, INDIRECT("N" &amp; ROW() - 1), L67)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G68" s="20" t="str">
+      <c r="G68" s="19" t="str">
         <f ca="1">IF(H68="", IF(J68="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N68)),IF(J68="", "", INDIRECT("N" &amp; ROW() - 1) - N68))</f>
         <v/>
       </c>
-      <c r="H68" s="21" t="str">
+      <c r="H68" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I68" s="21"/>
+      <c r="K68" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I68" s="22"/>
-      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="L68" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
       <c r="M68" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G69" s="20" t="str">
+      <c r="G69" s="19" t="str">
         <f ca="1">IF(H69="", IF(J69="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N69)),IF(J69="", "", INDIRECT("N" &amp; ROW() - 1) - N69))</f>
         <v/>
       </c>
-      <c r="H69" s="21" t="str">
+      <c r="H69" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I69" s="21"/>
+      <c r="K69" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I69" s="22"/>
-      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="L69" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
       <c r="M69" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G70" s="20" t="str">
+      <c r="G70" s="19" t="str">
         <f ca="1">IF(H70="", IF(J70="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N70)),IF(J70="", "", INDIRECT("N" &amp; ROW() - 1) - N70))</f>
         <v/>
       </c>
-      <c r="H70" s="21" t="str">
+      <c r="H70" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I70" s="21"/>
+      <c r="K70" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I70" s="22"/>
-      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="L70" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
       <c r="M70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G71" s="20" t="str">
+      <c r="G71" s="19" t="str">
         <f ca="1">IF(H71="", IF(J71="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N71)),IF(J71="", "", INDIRECT("N" &amp; ROW() - 1) - N71))</f>
         <v/>
       </c>
-      <c r="H71" s="21" t="str">
+      <c r="H71" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I71" s="21"/>
+      <c r="K71" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I71" s="22"/>
-      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="L71" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
       <c r="M71" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G72" s="20" t="str">
+      <c r="G72" s="19" t="str">
         <f ca="1">IF(H72="", IF(J72="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N72)),IF(J72="", "", INDIRECT("N" &amp; ROW() - 1) - N72))</f>
         <v/>
       </c>
-      <c r="H72" s="21" t="str">
+      <c r="H72" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I72" s="21"/>
+      <c r="K72" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I72" s="22"/>
-      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="L72" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
       <c r="M72" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G73" s="20" t="str">
+      <c r="G73" s="19" t="str">
         <f ca="1">IF(H73="", IF(J73="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N73)),IF(J73="", "", INDIRECT("N" &amp; ROW() - 1) - N73))</f>
         <v/>
       </c>
-      <c r="H73" s="21" t="str">
+      <c r="H73" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I73" s="21"/>
+      <c r="K73" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I73" s="22"/>
-      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="L73" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
       <c r="M73" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G74" s="20" t="str">
+      <c r="G74" s="19" t="str">
         <f ca="1">IF(H74="", IF(J74="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N74)),IF(J74="", "", INDIRECT("N" &amp; ROW() - 1) - N74))</f>
         <v/>
       </c>
-      <c r="H74" s="21" t="str">
+      <c r="H74" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I74" s="21"/>
+      <c r="K74" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I74" s="22"/>
-      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="L74" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
       <c r="M74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G75" s="20" t="str">
+      <c r="G75" s="19" t="str">
         <f ca="1">IF(H75="", IF(J75="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N75)),IF(J75="", "", INDIRECT("N" &amp; ROW() - 1) - N75))</f>
         <v/>
       </c>
-      <c r="H75" s="21" t="str">
+      <c r="H75" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I75" s="21"/>
+      <c r="K75" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I75" s="22"/>
-      <c r="K75" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" ref="L75:L100" ca="1" si="17">IF(J75="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K75))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K75)))),0)</f>
+        <f t="shared" ref="L75:L100" ca="1" si="16">IF(J75="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K75))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K75)))),0)</f>
         <v>0</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G76" s="20" t="str">
+      <c r="G76" s="19" t="str">
         <f ca="1">IF(H76="", IF(J76="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N76)),IF(J76="", "", INDIRECT("N" &amp; ROW() - 1) - N76))</f>
         <v/>
       </c>
-      <c r="H76" s="21" t="str">
+      <c r="H76" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I76" s="21"/>
+      <c r="K76" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I76" s="22"/>
-      <c r="K76" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G77" s="20" t="str">
+      <c r="G77" s="19" t="str">
         <f ca="1">IF(H77="", IF(J77="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N77)),IF(J77="", "", INDIRECT("N" &amp; ROW() - 1) - N77))</f>
         <v/>
       </c>
-      <c r="H77" s="21" t="str">
+      <c r="H77" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I77" s="21"/>
+      <c r="K77" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I77" s="22"/>
-      <c r="K77" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G78" s="20" t="str">
+      <c r="G78" s="19" t="str">
         <f ca="1">IF(H78="", IF(J78="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N78)),IF(J78="", "", INDIRECT("N" &amp; ROW() - 1) - N78))</f>
         <v/>
       </c>
-      <c r="H78" s="21" t="str">
+      <c r="H78" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I78" s="21"/>
+      <c r="K78" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I78" s="22"/>
-      <c r="K78" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="20" t="str">
+      <c r="G79" s="19" t="str">
         <f ca="1">IF(H79="", IF(J79="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N79)),IF(J79="", "", INDIRECT("N" &amp; ROW() - 1) - N79))</f>
         <v/>
       </c>
-      <c r="H79" s="21" t="str">
+      <c r="H79" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I79" s="21"/>
+      <c r="K79" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I79" s="22"/>
-      <c r="K79" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G80" s="20" t="str">
+      <c r="G80" s="19" t="str">
         <f ca="1">IF(H80="", IF(J80="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N80)),IF(J80="", "", INDIRECT("N" &amp; ROW() - 1) - N80))</f>
         <v/>
       </c>
-      <c r="H80" s="21" t="str">
+      <c r="H80" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I80" s="21"/>
+      <c r="K80" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I80" s="22"/>
-      <c r="K80" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G81" s="20" t="str">
+      <c r="G81" s="19" t="str">
         <f ca="1">IF(H81="", IF(J81="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N81)),IF(J81="", "", INDIRECT("N" &amp; ROW() - 1) - N81))</f>
         <v/>
       </c>
-      <c r="H81" s="21" t="str">
+      <c r="H81" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I81" s="21"/>
+      <c r="K81" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I81" s="22"/>
-      <c r="K81" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="20" t="str">
+      <c r="G82" s="19" t="str">
         <f ca="1">IF(H82="", IF(J82="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N82)),IF(J82="", "", INDIRECT("N" &amp; ROW() - 1) - N82))</f>
         <v/>
       </c>
-      <c r="H82" s="21" t="str">
+      <c r="H82" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I82" s="21"/>
+      <c r="K82" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I82" s="22"/>
-      <c r="K82" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="20" t="str">
+      <c r="G83" s="19" t="str">
         <f ca="1">IF(H83="", IF(J83="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N83)),IF(J83="", "", INDIRECT("N" &amp; ROW() - 1) - N83))</f>
         <v/>
       </c>
-      <c r="H83" s="21" t="str">
+      <c r="H83" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I83" s="21"/>
+      <c r="K83" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I83" s="22"/>
-      <c r="K83" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="20" t="str">
+      <c r="G84" s="19" t="str">
         <f ca="1">IF(H84="", IF(J84="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N84)),IF(J84="", "", INDIRECT("N" &amp; ROW() - 1) - N84))</f>
         <v/>
       </c>
-      <c r="H84" s="21" t="str">
+      <c r="H84" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I84" s="21"/>
+      <c r="K84" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I84" s="22"/>
-      <c r="K84" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="20" t="str">
+      <c r="G85" s="19" t="str">
         <f ca="1">IF(H85="", IF(J85="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N85)),IF(J85="", "", INDIRECT("N" &amp; ROW() - 1) - N85))</f>
         <v/>
       </c>
-      <c r="H85" s="21" t="str">
+      <c r="H85" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I85" s="21"/>
+      <c r="K85" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I85" s="22"/>
-      <c r="K85" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="20" t="str">
+      <c r="G86" s="19" t="str">
         <f ca="1">IF(H86="", IF(J86="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N86)),IF(J86="", "", INDIRECT("N" &amp; ROW() - 1) - N86))</f>
         <v/>
       </c>
-      <c r="H86" s="21" t="str">
+      <c r="H86" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I86" s="21"/>
+      <c r="K86" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I86" s="22"/>
-      <c r="K86" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="20" t="str">
+      <c r="G87" s="19" t="str">
         <f ca="1">IF(H87="", IF(J87="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N87)),IF(J87="", "", INDIRECT("N" &amp; ROW() - 1) - N87))</f>
         <v/>
       </c>
-      <c r="H87" s="21" t="str">
+      <c r="H87" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I87" s="21"/>
+      <c r="K87" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I87" s="22"/>
-      <c r="K87" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="20" t="str">
+      <c r="G88" s="19" t="str">
         <f ca="1">IF(H88="", IF(J88="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N88)),IF(J88="", "", INDIRECT("N" &amp; ROW() - 1) - N88))</f>
         <v/>
       </c>
-      <c r="H88" s="21" t="str">
+      <c r="H88" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I88" s="21"/>
+      <c r="K88" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I88" s="22"/>
-      <c r="K88" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="20" t="str">
+      <c r="G89" s="19" t="str">
         <f ca="1">IF(H89="", IF(J89="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N89)),IF(J89="", "", INDIRECT("N" &amp; ROW() - 1) - N89))</f>
         <v/>
       </c>
-      <c r="H89" s="21" t="str">
+      <c r="H89" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I89" s="21"/>
+      <c r="K89" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I89" s="22"/>
-      <c r="K89" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G90" s="20" t="str">
+      <c r="G90" s="19" t="str">
         <f ca="1">IF(H90="", IF(J90="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N90)),IF(J90="", "", INDIRECT("N" &amp; ROW() - 1) - N90))</f>
         <v/>
       </c>
-      <c r="H90" s="21" t="str">
+      <c r="H90" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I90" s="21"/>
+      <c r="K90" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I90" s="22"/>
-      <c r="K90" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G91" s="20" t="str">
+      <c r="G91" s="19" t="str">
         <f ca="1">IF(H91="", IF(J91="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N91)),IF(J91="", "", INDIRECT("N" &amp; ROW() - 1) - N91))</f>
         <v/>
       </c>
-      <c r="H91" s="21" t="str">
+      <c r="H91" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I91" s="21"/>
+      <c r="K91" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I91" s="22"/>
-      <c r="K91" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G92" s="20" t="str">
+      <c r="G92" s="19" t="str">
         <f ca="1">IF(H92="", IF(J92="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N92)),IF(J92="", "", INDIRECT("N" &amp; ROW() - 1) - N92))</f>
         <v/>
       </c>
-      <c r="H92" s="21" t="str">
+      <c r="H92" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I92" s="21"/>
+      <c r="K92" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I92" s="22"/>
-      <c r="K92" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G93" s="20" t="str">
+      <c r="G93" s="19" t="str">
         <f ca="1">IF(H93="", IF(J93="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N93)),IF(J93="", "", INDIRECT("N" &amp; ROW() - 1) - N93))</f>
         <v/>
       </c>
-      <c r="H93" s="21" t="str">
+      <c r="H93" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I93" s="21"/>
+      <c r="K93" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I93" s="22"/>
-      <c r="K93" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G94" s="20" t="str">
+      <c r="G94" s="19" t="str">
         <f ca="1">IF(H94="", IF(J94="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N94)),IF(J94="", "", INDIRECT("N" &amp; ROW() - 1) - N94))</f>
         <v/>
       </c>
-      <c r="H94" s="21" t="str">
+      <c r="H94" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I94" s="21"/>
+      <c r="K94" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I94" s="22"/>
-      <c r="K94" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G95" s="20" t="str">
+      <c r="G95" s="19" t="str">
         <f ca="1">IF(H95="", IF(J95="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N95)),IF(J95="", "", INDIRECT("N" &amp; ROW() - 1) - N95))</f>
         <v/>
       </c>
-      <c r="H95" s="21" t="str">
+      <c r="H95" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I95" s="21"/>
+      <c r="K95" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I95" s="22"/>
-      <c r="K95" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G96" s="20" t="str">
+      <c r="G96" s="19" t="str">
         <f ca="1">IF(H96="", IF(J96="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N96)),IF(J96="", "", INDIRECT("N" &amp; ROW() - 1) - N96))</f>
         <v/>
       </c>
-      <c r="H96" s="21" t="str">
+      <c r="H96" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I96" s="21"/>
+      <c r="K96" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I96" s="22"/>
-      <c r="K96" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G97" s="20" t="str">
+      <c r="G97" s="19" t="str">
         <f ca="1">IF(H97="", IF(J97="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N97)),IF(J97="", "", INDIRECT("N" &amp; ROW() - 1) - N97))</f>
         <v/>
       </c>
-      <c r="H97" s="21" t="str">
+      <c r="H97" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I97" s="21"/>
+      <c r="K97" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I97" s="22"/>
-      <c r="K97" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L97" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G98" s="20" t="str">
+      <c r="G98" s="19" t="str">
         <f ca="1">IF(H98="", IF(J98="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N98)),IF(J98="", "", INDIRECT("N" &amp; ROW() - 1) - N98))</f>
         <v/>
       </c>
-      <c r="H98" s="21" t="str">
+      <c r="H98" s="20" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="I98" s="21"/>
+      <c r="K98" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="I98" s="22"/>
-      <c r="K98" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G99" s="20" t="str">
+      <c r="G99" s="19" t="str">
         <f ca="1">IF(H99="", IF(J99="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N99)),IF(J99="", "", INDIRECT("N" &amp; ROW() - 1) - N99))</f>
         <v/>
       </c>
-      <c r="H99" s="21" t="str">
-        <f t="shared" ref="H99:H130" ca="1" si="18">IF(J99 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+      <c r="H99" s="20" t="str">
+        <f t="shared" ref="H99:H130" ca="1" si="17">IF(J99 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I99" s="22"/>
+      <c r="I99" s="21"/>
       <c r="K99" s="1">
-        <f t="shared" ref="K99:K123" ca="1" si="19">IF(J99 = "-", -INDIRECT("C" &amp; ROW() - 1),F99)</f>
+        <f t="shared" ref="K99:K130" ca="1" si="18">IF(J99 = "-", -INDIRECT("C" &amp; ROW() - 1),F99)</f>
         <v>0</v>
       </c>
       <c r="L99" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" ref="M99:M123" si="20">IF(J99="-",1,0)</f>
+        <f t="shared" ref="M99:M123" si="19">IF(J99="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" ref="N99:N123" ca="1" si="21">IF(L99 = 0, INDIRECT("N" &amp; ROW() - 1), L99)</f>
-        <v>9</v>
+        <f t="shared" ref="N99:N123" ca="1" si="20">IF(L99 = 0, INDIRECT("N" &amp; ROW() - 1), L99)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G100" s="20" t="str">
+      <c r="G100" s="19" t="str">
         <f ca="1">IF(H100="", IF(J100="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N100)),IF(J100="", "", INDIRECT("N" &amp; ROW() - 1) - N100))</f>
         <v/>
       </c>
-      <c r="H100" s="21" t="str">
+      <c r="H100" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I100" s="21"/>
+      <c r="K100" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I100" s="22"/>
-      <c r="K100" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L100" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G101" s="20" t="str">
+      <c r="G101" s="19" t="str">
         <f ca="1">IF(H101="", IF(J101="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N101)),IF(J101="", "", INDIRECT("N" &amp; ROW() - 1) - N101))</f>
         <v/>
       </c>
-      <c r="H101" s="21" t="str">
+      <c r="H101" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I101" s="21"/>
+      <c r="K101" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I101" s="22"/>
-      <c r="K101" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L101" s="1">
-        <f t="shared" ref="L101:L123" ca="1" si="22">IF(J101 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K101)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K101)))), 0)</f>
+        <f t="shared" ref="L101:L123" ca="1" si="21">IF(J101 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K101)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K101)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M101" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G102" s="20" t="str">
+      <c r="G102" s="19" t="str">
         <f ca="1">IF(H102="", IF(J102="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N102)),IF(J102="", "", INDIRECT("N" &amp; ROW() - 1) - N102))</f>
         <v/>
       </c>
-      <c r="H102" s="21" t="str">
+      <c r="H102" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I102" s="21"/>
+      <c r="K102" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I102" s="22"/>
-      <c r="K102" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L102" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M102" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G103" s="20" t="str">
+      <c r="G103" s="19" t="str">
         <f ca="1">IF(H103="", IF(J103="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N103)),IF(J103="", "", INDIRECT("N" &amp; ROW() - 1) - N103))</f>
         <v/>
       </c>
-      <c r="H103" s="21" t="str">
+      <c r="H103" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I103" s="21"/>
+      <c r="K103" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I103" s="22"/>
-      <c r="K103" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M103" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G104" s="20" t="str">
+      <c r="G104" s="19" t="str">
         <f ca="1">IF(H104="", IF(J104="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N104)),IF(J104="", "", INDIRECT("N" &amp; ROW() - 1) - N104))</f>
         <v/>
       </c>
-      <c r="H104" s="21" t="str">
+      <c r="H104" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I104" s="21"/>
+      <c r="K104" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I104" s="22"/>
-      <c r="K104" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L104" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M104" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N104" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G105" s="20" t="str">
+      <c r="G105" s="19" t="str">
         <f ca="1">IF(H105="", IF(J105="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N105)),IF(J105="", "", INDIRECT("N" &amp; ROW() - 1) - N105))</f>
         <v/>
       </c>
-      <c r="H105" s="21" t="str">
+      <c r="H105" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I105" s="21"/>
+      <c r="K105" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I105" s="22"/>
-      <c r="K105" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G106" s="20" t="str">
+      <c r="G106" s="19" t="str">
         <f ca="1">IF(H106="", IF(J106="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N106)),IF(J106="", "", INDIRECT("N" &amp; ROW() - 1) - N106))</f>
         <v/>
       </c>
-      <c r="H106" s="21" t="str">
+      <c r="H106" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I106" s="21"/>
+      <c r="K106" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I106" s="22"/>
-      <c r="K106" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G107" s="20" t="str">
+      <c r="G107" s="19" t="str">
         <f ca="1">IF(H107="", IF(J107="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N107)),IF(J107="", "", INDIRECT("N" &amp; ROW() - 1) - N107))</f>
         <v/>
       </c>
-      <c r="H107" s="21" t="str">
+      <c r="H107" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I107" s="21"/>
+      <c r="K107" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I107" s="22"/>
-      <c r="K107" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L107" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M107" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N107" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G108" s="20" t="str">
+      <c r="G108" s="19" t="str">
         <f ca="1">IF(H108="", IF(J108="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N108)),IF(J108="", "", INDIRECT("N" &amp; ROW() - 1) - N108))</f>
         <v/>
       </c>
-      <c r="H108" s="21" t="str">
+      <c r="H108" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I108" s="21"/>
+      <c r="K108" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I108" s="22"/>
-      <c r="K108" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L108" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M108" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N108" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G109" s="20" t="str">
+      <c r="G109" s="19" t="str">
         <f ca="1">IF(H109="", IF(J109="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N109)),IF(J109="", "", INDIRECT("N" &amp; ROW() - 1) - N109))</f>
         <v/>
       </c>
-      <c r="H109" s="21" t="str">
+      <c r="H109" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I109" s="21"/>
+      <c r="K109" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I109" s="22"/>
-      <c r="K109" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L109" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M109" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N109" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G110" s="20" t="str">
+      <c r="G110" s="19" t="str">
         <f ca="1">IF(H110="", IF(J110="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N110)),IF(J110="", "", INDIRECT("N" &amp; ROW() - 1) - N110))</f>
         <v/>
       </c>
-      <c r="H110" s="21" t="str">
+      <c r="H110" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I110" s="21"/>
+      <c r="K110" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I110" s="22"/>
-      <c r="K110" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L110" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G111" s="20" t="str">
+      <c r="G111" s="19" t="str">
         <f ca="1">IF(H111="", IF(J111="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N111)),IF(J111="", "", INDIRECT("N" &amp; ROW() - 1) - N111))</f>
         <v/>
       </c>
-      <c r="H111" s="21" t="str">
+      <c r="H111" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I111" s="21"/>
+      <c r="K111" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I111" s="22"/>
-      <c r="K111" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L111" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M111" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N111" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G112" s="20" t="str">
+      <c r="G112" s="19" t="str">
         <f ca="1">IF(H112="", IF(J112="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N112)),IF(J112="", "", INDIRECT("N" &amp; ROW() - 1) - N112))</f>
         <v/>
       </c>
-      <c r="H112" s="21" t="str">
+      <c r="H112" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I112" s="21"/>
+      <c r="K112" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I112" s="22"/>
-      <c r="K112" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L112" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N112" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G113" s="20" t="str">
+      <c r="G113" s="19" t="str">
         <f ca="1">IF(H113="", IF(J113="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N113)),IF(J113="", "", INDIRECT("N" &amp; ROW() - 1) - N113))</f>
         <v/>
       </c>
-      <c r="H113" s="21" t="str">
+      <c r="H113" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I113" s="21"/>
+      <c r="K113" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I113" s="22"/>
-      <c r="K113" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L113" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M113" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N113" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G114" s="20" t="str">
+      <c r="G114" s="19" t="str">
         <f ca="1">IF(H114="", IF(J114="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N114)),IF(J114="", "", INDIRECT("N" &amp; ROW() - 1) - N114))</f>
         <v/>
       </c>
-      <c r="H114" s="21" t="str">
+      <c r="H114" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I114" s="21"/>
+      <c r="K114" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I114" s="22"/>
-      <c r="K114" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L114" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M114" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N114" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G115" s="20" t="str">
+      <c r="G115" s="19" t="str">
         <f ca="1">IF(H115="", IF(J115="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N115)),IF(J115="", "", INDIRECT("N" &amp; ROW() - 1) - N115))</f>
         <v/>
       </c>
-      <c r="H115" s="21" t="str">
+      <c r="H115" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I115" s="21"/>
+      <c r="K115" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I115" s="22"/>
-      <c r="K115" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L115" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M115" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N115" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G116" s="20" t="str">
+      <c r="G116" s="19" t="str">
         <f ca="1">IF(H116="", IF(J116="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N116)),IF(J116="", "", INDIRECT("N" &amp; ROW() - 1) - N116))</f>
         <v/>
       </c>
-      <c r="H116" s="21" t="str">
+      <c r="H116" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I116" s="21"/>
+      <c r="K116" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I116" s="22"/>
-      <c r="K116" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L116" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M116" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N116" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G117" s="20" t="str">
+      <c r="G117" s="19" t="str">
         <f ca="1">IF(H117="", IF(J117="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N117)),IF(J117="", "", INDIRECT("N" &amp; ROW() - 1) - N117))</f>
         <v/>
       </c>
-      <c r="H117" s="21" t="str">
+      <c r="H117" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I117" s="21"/>
+      <c r="K117" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I117" s="22"/>
-      <c r="K117" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L117" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M117" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N117" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G118" s="20" t="str">
+      <c r="G118" s="19" t="str">
         <f ca="1">IF(H118="", IF(J118="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N118)),IF(J118="", "", INDIRECT("N" &amp; ROW() - 1) - N118))</f>
         <v/>
       </c>
-      <c r="H118" s="21" t="str">
+      <c r="H118" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I118" s="21"/>
+      <c r="K118" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I118" s="22"/>
-      <c r="K118" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L118" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M118" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N118" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G119" s="20" t="str">
+      <c r="G119" s="19" t="str">
         <f ca="1">IF(H119="", IF(J119="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N119)),IF(J119="", "", INDIRECT("N" &amp; ROW() - 1) - N119))</f>
         <v/>
       </c>
-      <c r="H119" s="21" t="str">
+      <c r="H119" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I119" s="21"/>
+      <c r="K119" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I119" s="22"/>
-      <c r="K119" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L119" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M119" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N119" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G120" s="20" t="str">
+      <c r="G120" s="19" t="str">
         <f ca="1">IF(H120="", IF(J120="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N120)),IF(J120="", "", INDIRECT("N" &amp; ROW() - 1) - N120))</f>
         <v/>
       </c>
-      <c r="H120" s="21" t="str">
+      <c r="H120" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I120" s="21"/>
+      <c r="K120" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I120" s="22"/>
-      <c r="K120" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L120" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M120" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N120" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G121" s="20" t="str">
+      <c r="G121" s="19" t="str">
         <f ca="1">IF(H121="", IF(J121="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N121)),IF(J121="", "", INDIRECT("N" &amp; ROW() - 1) - N121))</f>
         <v/>
       </c>
-      <c r="H121" s="21" t="str">
+      <c r="H121" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I121" s="21"/>
+      <c r="K121" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I121" s="22"/>
-      <c r="K121" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L121" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M121" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N121" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G122" s="20" t="str">
+      <c r="G122" s="19" t="str">
         <f ca="1">IF(H122="", IF(J122="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N122)),IF(J122="", "", INDIRECT("N" &amp; ROW() - 1) - N122))</f>
         <v/>
       </c>
-      <c r="H122" s="21" t="str">
+      <c r="H122" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I122" s="21"/>
+      <c r="K122" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I122" s="22"/>
-      <c r="K122" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L122" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M122" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N122" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G123" s="20" t="str">
+      <c r="G123" s="19" t="str">
         <f ca="1">IF(H123="", IF(J123="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N123)),IF(J123="", "", INDIRECT("N" &amp; ROW() - 1) - N123))</f>
         <v/>
       </c>
-      <c r="H123" s="21" t="str">
+      <c r="H123" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="I123" s="21"/>
+      <c r="K123" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="I123" s="22"/>
-      <c r="K123" s="1">
-        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L123" s="1">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="M123" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N123" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H124" s="21" t="str">
-        <f t="shared" ca="1" si="18"/>
+      <c r="H124" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H125" s="21" t="str">
-        <f t="shared" ca="1" si="18"/>
+      <c r="H125" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H126" s="21" t="str">
-        <f t="shared" ca="1" si="18"/>
+      <c r="H126" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H127" s="21" t="str">
-        <f t="shared" ca="1" si="18"/>
+      <c r="H127" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="7:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H128" s="21" t="str">
-        <f t="shared" ca="1" si="18"/>
+      <c r="H128" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H129" s="21" t="str">
-        <f t="shared" ca="1" si="18"/>
+      <c r="H129" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H130" s="21" t="str">
-        <f t="shared" ca="1" si="18"/>
+      <c r="H130" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H131" s="21" t="str">
-        <f t="shared" ref="H131:H165" ca="1" si="23">IF(J131 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+      <c r="H131" s="20" t="str">
+        <f t="shared" ref="H131:H165" ca="1" si="22">IF(J131 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H132" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H132" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H133" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H133" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H134" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H134" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H135" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H135" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H136" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H136" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H137" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H137" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H138" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H138" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H139" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H139" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H140" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H140" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H141" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H141" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H142" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H142" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H143" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H143" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H144" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H144" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H145" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H145" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H146" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H146" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H147" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H147" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H148" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H148" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H149" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H149" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H150" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H150" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H151" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H151" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H152" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H152" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H153" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H153" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H154" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H154" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H155" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H155" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H156" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H156" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H157" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H157" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H158" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H158" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H159" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H159" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H160" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H160" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H161" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H161" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H162" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H162" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H163" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H163" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H164" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H164" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="8:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H165" s="21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="H165" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:B123 B3:B5">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G1048576 G3:G5">
-    <cfRule type="expression" dxfId="38" priority="4">
-      <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
+  <conditionalFormatting sqref="G124:G1048576">
+    <cfRule type="expression" dxfId="54" priority="4">
+      <formula>IF(I124="",0, G124)  &lt; - 0.05* IF(I124="",0,I124)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="5">
-      <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
+    <cfRule type="expression" dxfId="53" priority="5">
+      <formula>AND(IF(I124="",0, G124)  &gt;= - 0.05* IF(I124="",0,I124), IF(I124="",0, G124) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="6">
-      <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
+    <cfRule type="expression" dxfId="52" priority="6">
+      <formula>AND(IF(I124="",0, G124)  &lt;= 0.05* IF(I124="",0,I124), IF(I124="",0, G124) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="7">
-      <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
+    <cfRule type="expression" dxfId="51" priority="7">
+      <formula>IF(I124="",0,G124)  &gt; 0.05* IF(I124="",0,I124)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="50" priority="8">
       <formula>$B6&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="9">
+    <cfRule type="expression" dxfId="49" priority="9">
       <formula>$B6&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="32" priority="10">
-      <formula>IF(I6="",0, G6)  &lt; - 0.05* IF(I6="",0,I6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="11">
-      <formula>AND(IF(I6="",0, G6)  &gt;= - 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &lt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="12">
-      <formula>AND(IF(I6="",0, G6)  &lt;= 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &gt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="13">
-      <formula>IF(I6="",0,G6)  &gt; 0.05* IF(I6="",0,I6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="expression" dxfId="28" priority="14">
+    <cfRule type="expression" dxfId="48" priority="10">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" dxfId="47" priority="11">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="20">
+    <cfRule type="expression" dxfId="46" priority="12">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="45" priority="13">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G4">
-    <cfRule type="expression" dxfId="24" priority="16">
-      <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23">
-      <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24">
-      <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="25">
-      <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="16" priority="26">
+    <cfRule type="expression" dxfId="44" priority="14">
       <formula>SUMIF(G3:G123,"&gt;0")-SUMIF(G3:G123,"&lt;0") &gt; 1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="43" priority="15">
       <formula>IF(I2="",0, G2)  &lt; - 0.05* IF(I2="",0,I2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="42" priority="16">
       <formula>AND(IF(I2="",0, G2)  &gt;= - 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="29">
+    <cfRule type="expression" dxfId="41" priority="17">
       <formula>AND(IF(I2="",0, G2)  &lt;= 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="30">
+    <cfRule type="expression" dxfId="40" priority="18">
       <formula>IF(I2="",0,G2)  &gt; 0.05* IF(I2="",0,I2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="11" priority="31">
+    <cfRule type="expression" dxfId="39" priority="19">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="32">
+    <cfRule type="expression" dxfId="38" priority="20">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="33">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="34">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="35">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="36">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="37">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="38">
+    <cfRule type="expression" dxfId="32" priority="26">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="39">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="42">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>$B3&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G123">
+    <cfRule type="expression" dxfId="27" priority="31">
+      <formula>IF(I5="",0, G5)  &lt; - 0.05* IF(I5="",0,I5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>AND(IF(I5="",0, G5)  &gt;= - 0.05* IF(I5="",0,I5), IF(I5="",0, G5) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="33">
+      <formula>AND(IF(I5="",0, G5)  &lt;= 0.05* IF(I5="",0,I5), IF(I5="",0, G5) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="34">
+      <formula>IF(I5="",0,G5)  &gt; 0.05* IF(I5="",0,I5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G123 G4:G5">
+    <cfRule type="expression" dxfId="23" priority="35">
+      <formula>IF(I4="",0, G4)  &lt; - 0.05* IF(I4="",0,I4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="36">
+      <formula>AND(IF(I4="",0, G4)  &gt;= - 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="37">
+      <formula>AND(IF(I4="",0, G4)  &lt;= 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="38">
+      <formula>IF(I4="",0,G4)  &gt; 0.05* IF(I4="",0,I4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="19" priority="39">
+      <formula>IF(I6="",0, G6)  &lt; - 0.05* IF(I6="",0,I6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="40">
+      <formula>AND(IF(I6="",0, G6)  &gt;= - 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="41">
+      <formula>AND(IF(I6="",0, G6)  &lt;= 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="42">
+      <formula>IF(I6="",0,G6)  &gt; 0.05* IF(I6="",0,I6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="15" priority="43">
+      <formula>IF(I4="",0, G4)  &lt; - 0.05* IF(I4="",0,I4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="44">
+      <formula>AND(IF(I4="",0, G4)  &gt;= - 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="45">
+      <formula>AND(IF(I4="",0, G4)  &lt;= 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="46">
+      <formula>IF(I4="",0,G4)  &gt; 0.05* IF(I4="",0,I4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G4">
+    <cfRule type="expression" dxfId="11" priority="47">
+      <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="48">
+      <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="49">
+      <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="50">
+      <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="51">
+      <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="52">
+      <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="53">
+      <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="54">
+      <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="55">
+      <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="56">
+      <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="57">
+      <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="58">
+      <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -51570,146 +51284,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>688</v>
+      <c r="A1" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>668</v>
       </c>
     </row>
@@ -51734,43 +51448,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>688</v>
+      <c r="A1" s="31" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>664</v>
+      <c r="A2" s="29" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>672</v>
+      <c r="A5" s="29" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>666</v>
+      <c r="A6" s="29" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>668</v>
+      <c r="A7" s="29" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>662</v>
+      <c r="A8" s="29" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>
